--- a/test_images/apples_images/apples_images_clean_thr800/features_clean_thr800.xlsx
+++ b/test_images/apples_images/apples_images_clean_thr800/features_clean_thr800.xlsx
@@ -1,19 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauro\Desktop\Riccardo Carroccio\CV@TR2\test_images\apples_images\apples_images_clean_thr800\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C217018B-CEF1-40A4-A057-992BA4C6C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>image_name</t>
   </si>
@@ -315,8 +335,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -330,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -338,5831 +358,7293 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Dataset: apples_images_thr800</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> (advanced automatic segmentation with constant threshold)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mean Intensity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>2881.2762982784916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2853.2017438338016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3538.1299944506104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2685.9086816296926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2409.1227953410985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2831.8420809645545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2827.3147789063773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1614.9666237832851</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2766.0834525713317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3767.1217141955572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3074.9189084882823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3365.0299401197599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3204.3823131211843</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>847.73166714553383</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3014.6180555555557</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2863.8463969522786</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2966.1973061024719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3049.0531000647975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2951.8268444114956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2818.7701986754969</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2978.8343980094373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2934.6745919170762</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2966.9897145846253</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1820.2700913242008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3172.7114683985428</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3118.8640393189416</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008.5805404249575</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3021.3634317685601</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3099.7857427584372</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2984.5388927270569</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2818.0288870008494</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2991.6743723242903</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2985.7604872009711</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2992.0471801697054</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2272.3888091822096</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2832.9479132070387</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3031.1656229752562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2965.8451056387225</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2859.6907427249139</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1903.906925037011</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1715.3555184960583</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1699.9971910112361</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2561.0581841432227</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3245.2468989958652</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2333.8115070608997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2820.5838668373872</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2986.5570024771164</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3160.4725831174869</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2692.2955738796977</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2865.7753194364145</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2846.6347005694042</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2709.2468652037614</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3230.1547523961658</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2910.2275948895731</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2728.5408343943768</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3392.103851596522</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2059.9108520038694</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2970.4342716038445</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2850.6390150877178</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2945.8820883982448</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2510.5937269954775</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1526.4006962650967</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2911.7122533826396</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3090.2053796623482</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3288.8350257519933</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2627.7770352369384</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2839.5217126900334</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2834.8995243512795</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2744.6776051668016</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2966.6505205966496</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2905.9361581162166</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3031.6556563724293</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3251.4131653352883</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3479.3789200981728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F2-49EE-B570-30BE641F060C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1537697983"/>
+        <c:axId val="1537698463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1537697983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1537698463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1537698463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1537697983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24976583-A853-B6E7-B8F5-7395E8EC908B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="true"/>
-    <col min="2" max="2" width="4.140625" customWidth="true"/>
-    <col min="3" max="3" width="4.140625" customWidth="true"/>
-    <col min="4" max="4" width="4.140625" customWidth="true"/>
-    <col min="5" max="5" width="4.140625" customWidth="true"/>
-    <col min="6" max="6" width="15" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.42578125" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
-    <col min="10" max="10" width="16.7109375" customWidth="true"/>
-    <col min="11" max="11" width="13.28515625" customWidth="true"/>
-    <col min="12" max="12" width="13.28515625" customWidth="true"/>
-    <col min="13" max="13" width="13.28515625" customWidth="true"/>
-    <col min="14" max="14" width="13.28515625" customWidth="true"/>
-    <col min="15" max="15" width="13.28515625" customWidth="true"/>
-    <col min="16" max="16" width="13.28515625" customWidth="true"/>
-    <col min="17" max="17" width="14.42578125" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="13.7109375" customWidth="true"/>
-    <col min="20" max="20" width="19.5703125" customWidth="true"/>
-    <col min="21" max="21" width="19.42578125" customWidth="true"/>
-    <col min="22" max="22" width="15" customWidth="true"/>
-    <col min="23" max="23" width="15" customWidth="true"/>
-    <col min="24" max="24" width="14.5703125" customWidth="true"/>
-    <col min="25" max="25" width="12.28515625" customWidth="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>91</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>93</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>407</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>599</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>111</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>234</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>2881.2762982784916</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>922.60168422649781</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>1054.3836118104828</v>
       </c>
-      <c r="I2" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J2" s="0">
+      <c r="I2">
+        <v>4095</v>
+      </c>
+      <c r="J2">
         <v>2986.6912336919204</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2">
         <v>1474.2249942778667</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>2160.0679789425499</v>
       </c>
-      <c r="M2" s="0">
+      <c r="M2">
         <v>2986.6912336919204</v>
       </c>
-      <c r="N2" s="0">
+      <c r="N2">
         <v>3666.5668345159074</v>
       </c>
-      <c r="O2" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P2" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q2" s="0">
+      <c r="O2">
+        <v>4095</v>
+      </c>
+      <c r="P2">
+        <v>4095</v>
+      </c>
+      <c r="Q2">
         <v>-0.33084703747787586</v>
       </c>
-      <c r="R2" s="0">
+      <c r="R2">
         <v>1.9453716891004271</v>
       </c>
-      <c r="S2" s="0">
+      <c r="S2">
         <v>3.5843991554018344</v>
       </c>
-      <c r="T2" s="0">
+      <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2" s="0">
+      <c r="U2">
         <v>0.49603089465779876</v>
       </c>
-      <c r="V2" s="0">
+      <c r="V2">
         <v>-0.18320385769675118</v>
       </c>
-      <c r="W2" s="0">
+      <c r="W2">
         <v>66.779730107927165</v>
       </c>
-      <c r="X2" s="0">
+      <c r="X2">
         <v>99.19532503404011</v>
       </c>
-      <c r="Y2" s="0">
+      <c r="Y2">
         <v>97.575608531286491</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>417</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>578</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>205</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>2853.2017438338016</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>1024.7436370267344</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>1043.9485008010986</v>
       </c>
-      <c r="I3" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J3" s="0">
+      <c r="I3">
+        <v>4095</v>
+      </c>
+      <c r="J3">
         <v>2931.1414511329826</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>1357.1455481803614</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>1943.2426184481574</v>
       </c>
-      <c r="M3" s="0">
+      <c r="M3">
         <v>2931.1414511329826</v>
       </c>
-      <c r="N3" s="0">
+      <c r="N3">
         <v>3968.591439688716</v>
       </c>
-      <c r="O3" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P3" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q3" s="0">
+      <c r="O3">
+        <v>4095</v>
+      </c>
+      <c r="P3">
+        <v>4095</v>
+      </c>
+      <c r="Q3">
         <v>-0.20236646401052497</v>
       </c>
-      <c r="R3" s="0">
+      <c r="R3">
         <v>1.6369308203445954</v>
       </c>
-      <c r="S3" s="0">
+      <c r="S3">
         <v>3.4920363630931206</v>
       </c>
-      <c r="T3" s="0">
+      <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3" s="0">
+      <c r="U3">
         <v>0.48167759287275175</v>
       </c>
-      <c r="V3" s="0">
+      <c r="V3">
         <v>-0.20503942747120152</v>
       </c>
-      <c r="W3" s="0">
+      <c r="W3">
         <v>52.971118778340617</v>
       </c>
-      <c r="X3" s="0">
+      <c r="X3">
         <v>92.818998259495785</v>
       </c>
-      <c r="Y3" s="0">
+      <c r="Y3">
         <v>99.79316718440819</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>170</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>182</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>214</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>232</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>3538.1299944506104</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>241.46175974353562</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>3102.1556603773583</v>
       </c>
-      <c r="I4" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J4" s="0">
+      <c r="I4">
+        <v>4095</v>
+      </c>
+      <c r="J4">
         <v>3513.5872641509432</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4">
         <v>3230.8004716981131</v>
       </c>
-      <c r="L4" s="0">
+      <c r="L4">
         <v>3335.8797169811323</v>
       </c>
-      <c r="M4" s="0">
+      <c r="M4">
         <v>3513.5872641509432</v>
       </c>
-      <c r="N4" s="0">
+      <c r="N4">
         <v>3720.268867924528</v>
       </c>
-      <c r="O4" s="0">
+      <c r="O4">
         <v>3904.1575471698111</v>
       </c>
-      <c r="P4" s="0">
+      <c r="P4">
         <v>3939.3127358490565</v>
       </c>
-      <c r="Q4" s="0">
+      <c r="Q4">
         <v>0.26850556573008588</v>
       </c>
-      <c r="R4" s="0">
+      <c r="R4">
         <v>2.1854445600113959</v>
       </c>
-      <c r="S4" s="0">
+      <c r="S4">
         <v>1.9366050478607886</v>
       </c>
-      <c r="T4" s="0">
+      <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" s="0">
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="V4" s="0">
-        <v>-0.039202357886323203</v>
-      </c>
-      <c r="W4" s="0">
+      <c r="V4">
+        <v>-3.9202357886323203E-2</v>
+      </c>
+      <c r="W4">
         <v>53.537011477989083</v>
       </c>
-      <c r="X4" s="0">
+      <c r="X4">
         <v>177.562802070515</v>
       </c>
-      <c r="Y4" s="0">
+      <c r="Y4">
         <v>90.554935022156556</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>422</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>608</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>114</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>244</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>2685.9086816296926</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>970.70033421038852</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>980.02563515678651</v>
       </c>
-      <c r="I5" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J5" s="0">
+      <c r="I5">
+        <v>4095</v>
+      </c>
+      <c r="J5">
         <v>2613.3392080567633</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5">
         <v>1392.3062485694668</v>
       </c>
-      <c r="L5" s="0">
+      <c r="L5">
         <v>1838.8915083543145</v>
       </c>
-      <c r="M5" s="0">
+      <c r="M5">
         <v>2613.3392080567633</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <v>3615.422293430991</v>
       </c>
-      <c r="O5" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P5" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q5" s="0">
-        <v>0.06949407184126756</v>
-      </c>
-      <c r="R5" s="0">
+      <c r="O5">
+        <v>4095</v>
+      </c>
+      <c r="P5">
+        <v>4095</v>
+      </c>
+      <c r="Q5">
+        <v>6.949407184126756E-2</v>
+      </c>
+      <c r="R5">
         <v>1.718825983366808</v>
       </c>
-      <c r="S5" s="0">
+      <c r="S5">
         <v>3.6031879853721365</v>
       </c>
-      <c r="T5" s="0">
-        <v>0.0032534432274156817</v>
-      </c>
-      <c r="U5" s="0">
+      <c r="T5">
+        <v>3.2534432274156817E-3</v>
+      </c>
+      <c r="U5">
         <v>0.38298449192061601</v>
       </c>
-      <c r="V5" s="0">
+      <c r="V5">
         <v>-0.20783954564476415</v>
       </c>
-      <c r="W5" s="0">
+      <c r="W5">
         <v>57.471998132329041</v>
       </c>
-      <c r="X5" s="0">
+      <c r="X5">
         <v>89.10404932939592</v>
       </c>
-      <c r="Y5" s="0">
+      <c r="Y5">
         <v>89.15124645746765</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>122</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>126</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>245</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>249</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>2409.1227953410985</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>336.39193586868987</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>1828.3277870216309</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>3084.3094841930119</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>2384.77537437604</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6">
         <v>1985.0415973377706</v>
       </c>
-      <c r="L6" s="0">
+      <c r="L6">
         <v>2176.9592346089853</v>
       </c>
-      <c r="M6" s="0">
+      <c r="M6">
         <v>2384.77537437604</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <v>2637.4480033277873</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <v>2864.0016638935108</v>
       </c>
-      <c r="P6" s="0">
+      <c r="P6">
         <v>2973.5877703826959</v>
       </c>
-      <c r="Q6" s="0">
-        <v>0.09053153269071279</v>
-      </c>
-      <c r="R6" s="0">
+      <c r="Q6">
+        <v>9.053153269071279E-2</v>
+      </c>
+      <c r="R6">
         <v>2.1692314965573876</v>
       </c>
-      <c r="S6" s="0">
+      <c r="S6">
         <v>2.3517374334224663</v>
       </c>
-      <c r="T6" s="0">
+      <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="V6" s="0">
-        <v>-0.081507529476833707</v>
-      </c>
-      <c r="W6" s="0">
+      <c r="U6">
+        <v>0.04</v>
+      </c>
+      <c r="V6">
+        <v>-8.1507529476833707E-2</v>
+      </c>
+      <c r="W6">
         <v>231.59887306578747</v>
       </c>
-      <c r="X6" s="0">
+      <c r="X6">
         <v>325.40934397559153</v>
       </c>
-      <c r="Y6" s="0">
+      <c r="Y6">
         <v>82.745244772701511</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>407</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>607</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>140</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>2831.8420809645545</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>946.43626434743851</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>946.90821698329137</v>
       </c>
-      <c r="I7" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J7" s="0">
+      <c r="I7">
+        <v>4095</v>
+      </c>
+      <c r="J7">
         <v>2941.2016479743647</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7">
         <v>1376.0599679560542</v>
       </c>
-      <c r="L7" s="0">
+      <c r="L7">
         <v>2092.3959716182189</v>
       </c>
-      <c r="M7" s="0">
+      <c r="M7">
         <v>2941.2016479743647</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <v>3635.1677729457538</v>
       </c>
-      <c r="O7" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P7" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q7" s="0">
+      <c r="O7">
+        <v>4095</v>
+      </c>
+      <c r="P7">
+        <v>4095</v>
+      </c>
+      <c r="Q7">
         <v>-0.34690006613377478</v>
       </c>
-      <c r="R7" s="0">
+      <c r="R7">
         <v>1.9779027919757743</v>
       </c>
-      <c r="S7" s="0">
+      <c r="S7">
         <v>3.6239038702640469</v>
       </c>
-      <c r="T7" s="0">
-        <v>0.014491353492416191</v>
-      </c>
-      <c r="U7" s="0">
+      <c r="T7">
+        <v>1.4491353492416191E-2</v>
+      </c>
+      <c r="U7">
         <v>0.48024345473867258</v>
       </c>
-      <c r="V7" s="0">
+      <c r="V7">
         <v>-0.19115727793706916</v>
       </c>
-      <c r="W7" s="0">
+      <c r="W7">
         <v>69.344019885472832</v>
       </c>
-      <c r="X7" s="0">
+      <c r="X7">
         <v>105.21396882039765</v>
       </c>
-      <c r="Y7" s="0">
+      <c r="Y7">
         <v>112.00280702934636</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>410</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>611</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>84</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>209</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>2827.3147789063773</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>956.8016746503223</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>945.53353170061803</v>
       </c>
-      <c r="I8" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J8" s="0">
+      <c r="I8">
+        <v>4095</v>
+      </c>
+      <c r="J8">
         <v>2901.5857175555047</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>1411.8017853055619</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8">
         <v>2063.1682879377431</v>
       </c>
-      <c r="M8" s="0">
+      <c r="M8">
         <v>2901.5857175555047</v>
       </c>
-      <c r="N8" s="0">
+      <c r="N8">
         <v>3678.579709315633</v>
       </c>
-      <c r="O8" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P8" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q8" s="0">
+      <c r="O8">
+        <v>4095</v>
+      </c>
+      <c r="P8">
+        <v>4095</v>
+      </c>
+      <c r="Q8">
         <v>-0.26201464640340905</v>
       </c>
-      <c r="R8" s="0">
+      <c r="R8">
         <v>1.8697836711386799</v>
       </c>
-      <c r="S8" s="0">
+      <c r="S8">
         <v>3.6154646166343176</v>
       </c>
-      <c r="T8" s="0">
-        <v>0.0093956188968065454</v>
-      </c>
-      <c r="U8" s="0">
+      <c r="T8">
+        <v>9.3956188968065454E-3</v>
+      </c>
+      <c r="U8">
         <v>0.47432040116125629</v>
       </c>
-      <c r="V8" s="0">
+      <c r="V8">
         <v>-0.19412137002179897</v>
       </c>
-      <c r="W8" s="0">
+      <c r="W8">
         <v>51.620736024039381</v>
       </c>
-      <c r="X8" s="0">
+      <c r="X8">
         <v>81.050847302318857</v>
       </c>
-      <c r="Y8" s="0">
+      <c r="Y8">
         <v>77.870160326926509</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>182</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>200</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>148</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>164</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>1614.9666237832851</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>681.27554100116481</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>1042.8100347112654</v>
       </c>
-      <c r="I9" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J9" s="0">
+      <c r="I9">
+        <v>4095</v>
+      </c>
+      <c r="J9">
         <v>1373.6147049542442</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>1100.183969706532</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9">
         <v>1173.9689176396339</v>
       </c>
-      <c r="M9" s="0">
+      <c r="M9">
         <v>1373.6147049542442</v>
       </c>
-      <c r="N9" s="0">
+      <c r="N9">
         <v>1675.3447459766487</v>
       </c>
-      <c r="O9" s="0">
+      <c r="O9">
         <v>2626.7958346481537</v>
       </c>
-      <c r="P9" s="0">
+      <c r="P9">
         <v>3320.3872672767397</v>
       </c>
-      <c r="Q9" s="0">
+      <c r="Q9">
         <v>1.9390929725732413</v>
       </c>
-      <c r="R9" s="0">
+      <c r="R9">
         <v>6.1968991048648476</v>
       </c>
-      <c r="S9" s="0">
+      <c r="S9">
         <v>2.7458736668503056</v>
       </c>
-      <c r="T9" s="0">
+      <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" s="0">
-        <v>0.065088757396449703</v>
-      </c>
-      <c r="V9" s="0">
+      <c r="U9">
+        <v>6.5088757396449703E-2</v>
+      </c>
+      <c r="V9">
         <v>-0.20071652223944692</v>
       </c>
-      <c r="W9" s="0">
+      <c r="W9">
         <v>103.83375665772068</v>
       </c>
-      <c r="X9" s="0">
+      <c r="X9">
         <v>342.44430909616767</v>
       </c>
-      <c r="Y9" s="0">
+      <c r="Y9">
         <v>331.08768765117111</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>179</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>190</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>104</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>114</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>2766.0834525713317</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>504.45779159143137</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>2157.5229357798166</v>
       </c>
-      <c r="I10" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J10" s="0">
+      <c r="I10">
+        <v>4095</v>
+      </c>
+      <c r="J10">
         <v>2621.7660550458718</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10">
         <v>2249.8348623853208</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10">
         <v>2368.1766055045873</v>
       </c>
-      <c r="M10" s="0">
+      <c r="M10">
         <v>2621.7660550458718</v>
       </c>
-      <c r="N10" s="0">
+      <c r="N10">
         <v>3067.2247706422017</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <v>3586.211009174312</v>
       </c>
-      <c r="P10" s="0">
+      <c r="P10">
         <v>3866.3669724770639</v>
       </c>
-      <c r="Q10" s="0">
+      <c r="Q10">
         <v>0.97529449917138933</v>
       </c>
-      <c r="R10" s="0">
+      <c r="R10">
         <v>3.0555313054016273</v>
       </c>
-      <c r="S10" s="0">
+      <c r="S10">
         <v>2.759322859512082</v>
       </c>
-      <c r="T10" s="0">
+      <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10" s="0">
+      <c r="U10">
         <v>0.27522935779816515</v>
       </c>
-      <c r="V10" s="0">
-        <v>-0.099799906711036446</v>
-      </c>
-      <c r="W10" s="0">
+      <c r="V10">
+        <v>-9.9799906711036446E-2</v>
+      </c>
+      <c r="W10">
         <v>177.6573664187398</v>
       </c>
-      <c r="X10" s="0">
+      <c r="X10">
         <v>338.40800989009711</v>
       </c>
-      <c r="Y10" s="0">
+      <c r="Y10">
         <v>124.28931106527421</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>479</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>576</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>177</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>244</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>3767.1217141955572</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>408.26250736563202</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>2816.605172808423</v>
       </c>
-      <c r="I11" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J11" s="0">
+      <c r="I11">
+        <v>4095</v>
+      </c>
+      <c r="J11">
         <v>4056.3838406958116</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>3101.1025406271456</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11">
         <v>3427.7152666514075</v>
       </c>
-      <c r="M11" s="0">
+      <c r="M11">
         <v>4056.3838406958116</v>
       </c>
-      <c r="N11" s="0">
-        <v>4095</v>
-      </c>
-      <c r="O11" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P11" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q11" s="0">
+      <c r="N11">
+        <v>4095</v>
+      </c>
+      <c r="O11">
+        <v>4095</v>
+      </c>
+      <c r="P11">
+        <v>4095</v>
+      </c>
+      <c r="Q11">
         <v>-0.83837812385089772</v>
       </c>
-      <c r="R11" s="0">
+      <c r="R11">
         <v>2.1993902398212426</v>
       </c>
-      <c r="S11" s="0">
+      <c r="S11">
         <v>2.0589549315708462</v>
       </c>
-      <c r="T11" s="0">
+      <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11" s="0">
+      <c r="U11">
         <v>0.93864077669902912</v>
       </c>
-      <c r="V11" s="0">
-        <v>-0.056700140664264875</v>
-      </c>
-      <c r="W11" s="0">
+      <c r="V11">
+        <v>-5.6700140664264875E-2</v>
+      </c>
+      <c r="W11">
         <v>73.39585212240226</v>
       </c>
-      <c r="X11" s="0">
+      <c r="X11">
         <v>111.79093177705943</v>
       </c>
-      <c r="Y11" s="0">
+      <c r="Y11">
         <v>135.24933172570837</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>433</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>585</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>45</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>149</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>3074.9189084882823</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>895.8421297944858</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>1153.3609521629664</v>
       </c>
-      <c r="I12" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J12" s="0">
+      <c r="I12">
+        <v>4095</v>
+      </c>
+      <c r="J12">
         <v>3222.449759670405</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>1702.4977340352484</v>
       </c>
-      <c r="L12" s="0">
+      <c r="L12">
         <v>2381.5797665369651</v>
       </c>
-      <c r="M12" s="0">
+      <c r="M12">
         <v>3222.449759670405</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <v>3935.1615930418861</v>
       </c>
-      <c r="O12" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P12" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q12" s="0">
+      <c r="O12">
+        <v>4095</v>
+      </c>
+      <c r="P12">
+        <v>4095</v>
+      </c>
+      <c r="Q12">
         <v>-0.48588897127774006</v>
       </c>
-      <c r="R12" s="0">
+      <c r="R12">
         <v>2.008411080765097</v>
       </c>
-      <c r="S12" s="0">
+      <c r="S12">
         <v>3.4048820665343604</v>
       </c>
-      <c r="T12" s="0">
+      <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12" s="0">
+      <c r="U12">
         <v>0.56681771205978215</v>
       </c>
-      <c r="V12" s="0">
+      <c r="V12">
         <v>-0.16468516892213314</v>
       </c>
-      <c r="W12" s="0">
+      <c r="W12">
         <v>70.219787093691494</v>
       </c>
-      <c r="X12" s="0">
+      <c r="X12">
         <v>105.35554966482334</v>
       </c>
-      <c r="Y12" s="0">
+      <c r="Y12">
         <v>112.36968151586973</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>165</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>173</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>116</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>121</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>3365.0299401197599</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>347.11031615776812</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>2840.9281437125746</v>
       </c>
-      <c r="I13" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J13" s="0">
+      <c r="I13">
+        <v>4095</v>
+      </c>
+      <c r="J13">
         <v>3322.5898203592815</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>2933.4071856287424</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>3086.1377245508979</v>
       </c>
-      <c r="M13" s="0">
+      <c r="M13">
         <v>3322.5898203592815</v>
       </c>
-      <c r="N13" s="0">
+      <c r="N13">
         <v>3623.8473053892212</v>
       </c>
-      <c r="O13" s="0">
+      <c r="O13">
         <v>3851.8922155688624</v>
       </c>
-      <c r="P13" s="0">
+      <c r="P13">
         <v>3987.458083832335</v>
       </c>
-      <c r="Q13" s="0">
+      <c r="Q13">
         <v>0.36650146120531463</v>
       </c>
-      <c r="R13" s="0">
+      <c r="R13">
         <v>2.0655036610756325</v>
       </c>
-      <c r="S13" s="0">
+      <c r="S13">
         <v>2.4684981159481003</v>
       </c>
-      <c r="T13" s="0">
+      <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13" s="0">
+      <c r="U13">
         <v>0.80769230769230771</v>
       </c>
-      <c r="V13" s="0">
-        <v>-0.059470424941276745</v>
-      </c>
-      <c r="W13" s="0">
+      <c r="V13">
+        <v>-5.9470424941276745E-2</v>
+      </c>
+      <c r="W13">
         <v>193.40918715612261</v>
       </c>
-      <c r="X13" s="0">
+      <c r="X13">
         <v>276.39581352576602</v>
       </c>
-      <c r="Y13" s="0">
+      <c r="Y13">
         <v>120.89670326511069</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>448</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>592</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>75</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>153</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>3204.3823131211843</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>887.20547418751812</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>1200.7875944151981</v>
       </c>
-      <c r="I14" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J14" s="0">
+      <c r="I14">
+        <v>4095</v>
+      </c>
+      <c r="J14">
         <v>3434.7136644541088</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <v>1774.8374227512018</v>
       </c>
-      <c r="L14" s="0">
+      <c r="L14">
         <v>2554.3527122911423</v>
       </c>
-      <c r="M14" s="0">
+      <c r="M14">
         <v>3434.7136644541088</v>
       </c>
-      <c r="N14" s="0">
-        <v>4095</v>
-      </c>
-      <c r="O14" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P14" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q14" s="0">
+      <c r="N14">
+        <v>4095</v>
+      </c>
+      <c r="O14">
+        <v>4095</v>
+      </c>
+      <c r="P14">
+        <v>4095</v>
+      </c>
+      <c r="Q14">
         <v>-0.67423031034345682</v>
       </c>
-      <c r="R14" s="0">
+      <c r="R14">
         <v>2.1824051074325954</v>
       </c>
-      <c r="S14" s="0">
+      <c r="S14">
         <v>3.2246194076448935</v>
       </c>
-      <c r="T14" s="0">
+      <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" s="0">
+      <c r="U14">
         <v>0.63662723266063559</v>
       </c>
-      <c r="V14" s="0">
+      <c r="V14">
         <v>-0.15328832539490067</v>
       </c>
-      <c r="W14" s="0">
+      <c r="W14">
         <v>80.161885901056081</v>
       </c>
-      <c r="X14" s="0">
+      <c r="X14">
         <v>127.36305944121912</v>
       </c>
-      <c r="Y14" s="0">
+      <c r="Y14">
         <v>130.44103765544784</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>160</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>189</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>41</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>51</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>847.73166714553383</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>21.108933276725665</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>809.7000740557886</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>906.74277956060234</v>
       </c>
-      <c r="J15" s="0">
+      <c r="J15">
         <v>846.59651937793137</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <v>819.70760306097259</v>
       </c>
-      <c r="L15" s="0">
+      <c r="L15">
         <v>829.91730436929151</v>
       </c>
-      <c r="M15" s="0">
+      <c r="M15">
         <v>846.59651937793137</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <v>863.27573438657123</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15">
         <v>875.40607257467298</v>
       </c>
-      <c r="P15" s="0">
+      <c r="P15">
         <v>885.81794618612685</v>
       </c>
-      <c r="Q15" s="0">
+      <c r="Q15">
         <v>0.19439419152721468</v>
       </c>
-      <c r="R15" s="0">
+      <c r="R15">
         <v>2.3825683779967779</v>
       </c>
-      <c r="S15" s="0">
-        <v>0.038403573725981452</v>
-      </c>
-      <c r="T15" s="0">
+      <c r="S15">
+        <v>3.8403573725981452E-2</v>
+      </c>
+      <c r="T15">
         <v>1</v>
       </c>
-      <c r="U15" s="0">
+      <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15" s="0">
-        <v>-0.014260864934404482</v>
-      </c>
-      <c r="W15" s="0">
+      <c r="V15">
+        <v>-1.4260864934404482E-2</v>
+      </c>
+      <c r="W15">
         <v>8.5043609955455182</v>
       </c>
-      <c r="X15" s="0">
+      <c r="X15">
         <v>16.679107761066795</v>
       </c>
-      <c r="Y15" s="0">
+      <c r="Y15">
         <v>9.8218903629501195</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>179</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>189</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>123</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>131</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>3014.6180555555557</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>490.01301194515003</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>2350.8333333333335</v>
       </c>
-      <c r="I16" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J16" s="0">
+      <c r="I16">
+        <v>4095</v>
+      </c>
+      <c r="J16">
         <v>2926.875</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <v>2458.166666666667</v>
       </c>
-      <c r="L16" s="0">
+      <c r="L16">
         <v>2603.125</v>
       </c>
-      <c r="M16" s="0">
+      <c r="M16">
         <v>2926.875</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <v>3332.291666666667</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <v>3809.7500000000005</v>
       </c>
-      <c r="P16" s="0">
+      <c r="P16">
         <v>3915.041666666667</v>
       </c>
-      <c r="Q16" s="0">
+      <c r="Q16">
         <v>0.60725139142505413</v>
       </c>
-      <c r="R16" s="0">
+      <c r="R16">
         <v>2.1885621817173835</v>
       </c>
-      <c r="S16" s="0">
+      <c r="S16">
         <v>2.7367078783594345</v>
       </c>
-      <c r="T16" s="0">
+      <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" s="0">
+      <c r="U16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="V16" s="0">
-        <v>-0.091912275401695442</v>
-      </c>
-      <c r="W16" s="0">
+      <c r="V16">
+        <v>-9.1912275401695442E-2</v>
+      </c>
+      <c r="W16">
         <v>184.52255381792367</v>
       </c>
-      <c r="X16" s="0">
+      <c r="X16">
         <v>362.63466993370361</v>
       </c>
-      <c r="Y16" s="0">
+      <c r="Y16">
         <v>225.60328890419402</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>442</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>596</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>17</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>130</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>2863.8463969522786</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>1007.9739640555438</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>1054.6960402838176</v>
       </c>
-      <c r="I17" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J17" s="0">
+      <c r="I17">
+        <v>4095</v>
+      </c>
+      <c r="J17">
         <v>2961.3220416571298</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <v>1431.297322041657</v>
       </c>
-      <c r="L17" s="0">
+      <c r="L17">
         <v>1894.7537193865874</v>
       </c>
-      <c r="M17" s="0">
+      <c r="M17">
         <v>2961.3220416571298</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <v>3917.2281986724652</v>
       </c>
-      <c r="O17" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P17" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q17" s="0">
+      <c r="O17">
+        <v>4095</v>
+      </c>
+      <c r="P17">
+        <v>4095</v>
+      </c>
+      <c r="Q17">
         <v>-0.21205016131394888</v>
       </c>
-      <c r="R17" s="0">
+      <c r="R17">
         <v>1.6291421037826945</v>
       </c>
-      <c r="S17" s="0">
+      <c r="S17">
         <v>3.4966683607262672</v>
       </c>
-      <c r="T17" s="0">
+      <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" s="0">
+      <c r="U17">
         <v>0.49136702043402503</v>
       </c>
-      <c r="V17" s="0">
+      <c r="V17">
         <v>-0.20102977152811752</v>
       </c>
-      <c r="W17" s="0">
+      <c r="W17">
         <v>63.231348467302631</v>
       </c>
-      <c r="X17" s="0">
+      <c r="X17">
         <v>106.29385025569404</v>
       </c>
-      <c r="Y17" s="0">
+      <c r="Y17">
         <v>118.3681092287554</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>420</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>562</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>81</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>179</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>2966.1973061024719</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>960.22617384827151</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>1037.6999313344015</v>
       </c>
-      <c r="I18" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J18" s="0">
+      <c r="I18">
+        <v>4095</v>
+      </c>
+      <c r="J18">
         <v>3058.6122682536052</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <v>1549.395284962234</v>
       </c>
-      <c r="L18" s="0">
+      <c r="L18">
         <v>2150.820096131838</v>
       </c>
-      <c r="M18" s="0">
+      <c r="M18">
         <v>3058.6122682536052</v>
       </c>
-      <c r="N18" s="0">
+      <c r="N18">
         <v>4009.1915197985809</v>
       </c>
-      <c r="O18" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P18" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q18" s="0">
+      <c r="O18">
+        <v>4095</v>
+      </c>
+      <c r="P18">
+        <v>4095</v>
+      </c>
+      <c r="Q18">
         <v>-0.33303223309523444</v>
       </c>
-      <c r="R18" s="0">
+      <c r="R18">
         <v>1.804094790461676</v>
       </c>
-      <c r="S18" s="0">
+      <c r="S18">
         <v>3.4399895211515572</v>
       </c>
-      <c r="T18" s="0">
+      <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18" s="0">
+      <c r="U18">
         <v>0.51949309161313029</v>
       </c>
-      <c r="V18" s="0">
+      <c r="V18">
         <v>-0.18414931632186837</v>
       </c>
-      <c r="W18" s="0">
+      <c r="W18">
         <v>60.294313910258985</v>
       </c>
-      <c r="X18" s="0">
+      <c r="X18">
         <v>89.929119206753171</v>
       </c>
-      <c r="Y18" s="0">
+      <c r="Y18">
         <v>87.395355666803567</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>434</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>596</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>31</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>128</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>3049.0531000647975</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>939.20239438469378</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>1026.3275349050125</v>
       </c>
-      <c r="I19" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J19" s="0">
+      <c r="I19">
+        <v>4095</v>
+      </c>
+      <c r="J19">
         <v>3213.451819638361</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <v>1602.8830395971618</v>
       </c>
-      <c r="L19" s="0">
+      <c r="L19">
         <v>2319.15655756466</v>
       </c>
-      <c r="M19" s="0">
+      <c r="M19">
         <v>3213.451819638361</v>
       </c>
-      <c r="N19" s="0">
+      <c r="N19">
         <v>3993.7731746395057</v>
       </c>
-      <c r="O19" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P19" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q19" s="0">
+      <c r="O19">
+        <v>4095</v>
+      </c>
+      <c r="P19">
+        <v>4095</v>
+      </c>
+      <c r="Q19">
         <v>-0.48680651177405404</v>
       </c>
-      <c r="R19" s="0">
+      <c r="R19">
         <v>1.9785363843919761</v>
       </c>
-      <c r="S19" s="0">
+      <c r="S19">
         <v>3.4387257114461907</v>
       </c>
-      <c r="T19" s="0">
+      <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19" s="0">
+      <c r="U19">
         <v>0.56381723149553198</v>
       </c>
-      <c r="V19" s="0">
+      <c r="V19">
         <v>-0.17379703848194739</v>
       </c>
-      <c r="W19" s="0">
+      <c r="W19">
         <v>59.87754549860648</v>
       </c>
-      <c r="X19" s="0">
+      <c r="X19">
         <v>96.257784865264782</v>
       </c>
-      <c r="Y19" s="0">
+      <c r="Y19">
         <v>95.658300640957094</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>430</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>595</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>101</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>215</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>2951.8268444114956</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>876.25542455205277</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>1204.1618219272145</v>
       </c>
-      <c r="I20" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J20" s="0">
+      <c r="I20">
+        <v>4095</v>
+      </c>
+      <c r="J20">
         <v>2996.0640878919658</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <v>1653.6214236667429</v>
       </c>
-      <c r="L20" s="0">
+      <c r="L20">
         <v>2262.4820325017167</v>
       </c>
-      <c r="M20" s="0">
+      <c r="M20">
         <v>2996.0640878919658</v>
       </c>
-      <c r="N20" s="0">
+      <c r="N20">
         <v>3779.3222705424582</v>
       </c>
-      <c r="O20" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P20" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q20" s="0">
+      <c r="O20">
+        <v>4095</v>
+      </c>
+      <c r="P20">
+        <v>4095</v>
+      </c>
+      <c r="Q20">
         <v>-0.23392385839477275</v>
       </c>
-      <c r="R20" s="0">
+      <c r="R20">
         <v>1.8826351973400686</v>
       </c>
-      <c r="S20" s="0">
+      <c r="S20">
         <v>3.4633821428308904</v>
       </c>
-      <c r="T20" s="0">
+      <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20" s="0">
+      <c r="U20">
         <v>0.49858914626944023</v>
       </c>
-      <c r="V20" s="0">
+      <c r="V20">
         <v>-0.17015247879585105</v>
       </c>
-      <c r="W20" s="0">
+      <c r="W20">
         <v>71.742211209642079</v>
       </c>
-      <c r="X20" s="0">
+      <c r="X20">
         <v>103.48831391411071</v>
       </c>
-      <c r="Y20" s="0">
+      <c r="Y20">
         <v>112.35007796709085</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>184</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>188</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>238</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>242</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>2818.7701986754969</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>677.73385538015953</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>1873.4850993377484</v>
       </c>
-      <c r="I21" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J21" s="0">
+      <c r="I21">
+        <v>4095</v>
+      </c>
+      <c r="J21">
         <v>2659.9420529801328</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <v>2063.3195364238409</v>
       </c>
-      <c r="L21" s="0">
+      <c r="L21">
         <v>2255.4139072847684</v>
       </c>
-      <c r="M21" s="0">
+      <c r="M21">
         <v>2659.9420529801328</v>
       </c>
-      <c r="N21" s="0">
+      <c r="N21">
         <v>3410.8050496688743</v>
       </c>
-      <c r="O21" s="0">
+      <c r="O21">
         <v>3959.4039735099341</v>
       </c>
-      <c r="P21" s="0">
+      <c r="P21">
         <v>4069.5757450331125</v>
       </c>
-      <c r="Q21" s="0">
+      <c r="Q21">
         <v>0.58449865045764759</v>
       </c>
-      <c r="R21" s="0">
+      <c r="R21">
         <v>2.1609785064914218</v>
       </c>
-      <c r="S21" s="0">
+      <c r="S21">
         <v>3.0830741894285691</v>
       </c>
-      <c r="T21" s="0">
+      <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21" s="0">
-        <v>0.32000000000000001</v>
-      </c>
-      <c r="V21" s="0">
+      <c r="U21">
+        <v>0.32</v>
+      </c>
+      <c r="V21">
         <v>-0.1374404036516792</v>
       </c>
-      <c r="W21" s="0">
+      <c r="W21">
         <v>529.34389610967003</v>
       </c>
-      <c r="X21" s="0">
+      <c r="X21">
         <v>753.15248060565023</v>
       </c>
-      <c r="Y21" s="0">
+      <c r="Y21">
         <v>249.81546955575004</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>445</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>595</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>147</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>241</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>2978.8343980094373</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>974.32092960348166</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>963.90432593270771</v>
       </c>
-      <c r="I22" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J22" s="0">
+      <c r="I22">
+        <v>4095</v>
+      </c>
+      <c r="J22">
         <v>3131.0956740672923</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <v>1465.6644541084916</v>
       </c>
-      <c r="L22" s="0">
+      <c r="L22">
         <v>2232.2389562829021</v>
       </c>
-      <c r="M22" s="0">
+      <c r="M22">
         <v>3131.0956740672923</v>
       </c>
-      <c r="N22" s="0">
+      <c r="N22">
         <v>3984.5877775234608</v>
       </c>
-      <c r="O22" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P22" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q22" s="0">
+      <c r="O22">
+        <v>4095</v>
+      </c>
+      <c r="P22">
+        <v>4095</v>
+      </c>
+      <c r="Q22">
         <v>-0.44000174734557934</v>
       </c>
-      <c r="R22" s="0">
+      <c r="R22">
         <v>1.9511037451523519</v>
       </c>
-      <c r="S22" s="0">
+      <c r="S22">
         <v>3.4737850569150432</v>
       </c>
-      <c r="T22" s="0">
-        <v>0.0062795698924731184</v>
-      </c>
-      <c r="U22" s="0">
+      <c r="T22">
+        <v>6.2795698924731184E-3</v>
+      </c>
+      <c r="U22">
         <v>0.5336774193548387</v>
       </c>
-      <c r="V22" s="0">
+      <c r="V22">
         <v>-0.18524290034225754</v>
       </c>
-      <c r="W22" s="0">
+      <c r="W22">
         <v>65.753060080523838</v>
       </c>
-      <c r="X22" s="0">
+      <c r="X22">
         <v>95.798583678516209</v>
       </c>
-      <c r="Y22" s="0">
+      <c r="Y22">
         <v>93.061478129728926</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>386</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>556</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>93</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>209</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>2934.6745919170762</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>934.64112712739484</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>1069.5051499198903</v>
       </c>
-      <c r="I23" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J23" s="0">
+      <c r="I23">
+        <v>4095</v>
+      </c>
+      <c r="J23">
         <v>3049.5518425268942</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <v>1546.1460288395513</v>
       </c>
-      <c r="L23" s="0">
+      <c r="L23">
         <v>2145.3057335774779</v>
       </c>
-      <c r="M23" s="0">
+      <c r="M23">
         <v>3049.5518425268942</v>
       </c>
-      <c r="N23" s="0">
+      <c r="N23">
         <v>3815.9388876173039</v>
       </c>
-      <c r="O23" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P23" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q23" s="0">
+      <c r="O23">
+        <v>4095</v>
+      </c>
+      <c r="P23">
+        <v>4095</v>
+      </c>
+      <c r="Q23">
         <v>-0.3251921087026709</v>
       </c>
-      <c r="R23" s="0">
+      <c r="R23">
         <v>1.8221437196799146</v>
       </c>
-      <c r="S23" s="0">
+      <c r="S23">
         <v>3.5408073471745829</v>
       </c>
-      <c r="T23" s="0">
+      <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23" s="0">
+      <c r="U23">
         <v>0.51427322131301145</v>
       </c>
-      <c r="V23" s="0">
+      <c r="V23">
         <v>-0.18195943653188151</v>
       </c>
-      <c r="W23" s="0">
+      <c r="W23">
         <v>57.144310775879433</v>
       </c>
-      <c r="X23" s="0">
+      <c r="X23">
         <v>83.102739688350425</v>
       </c>
-      <c r="Y23" s="0">
+      <c r="Y23">
         <v>90.94015173284086</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>422</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>588</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>35</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>152</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>2966.9897145846253</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>955.91864511064136</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>1000.6459143968872</v>
       </c>
-      <c r="I24" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J24" s="0">
+      <c r="I24">
+        <v>4095</v>
+      </c>
+      <c r="J24">
         <v>3110.6003662165253</v>
       </c>
-      <c r="K24" s="0">
+      <c r="K24">
         <v>1492.8457312886244</v>
       </c>
-      <c r="L24" s="0">
+      <c r="L24">
         <v>2209.9315632867933</v>
       </c>
-      <c r="M24" s="0">
+      <c r="M24">
         <v>3110.6003662165253</v>
       </c>
-      <c r="N24" s="0">
+      <c r="N24">
         <v>3885.1105516136413</v>
       </c>
-      <c r="O24" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P24" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q24" s="0">
+      <c r="O24">
+        <v>4095</v>
+      </c>
+      <c r="P24">
+        <v>4095</v>
+      </c>
+      <c r="Q24">
         <v>-0.43157423193334199</v>
       </c>
-      <c r="R24" s="0">
+      <c r="R24">
         <v>1.9370858062213265</v>
       </c>
-      <c r="S24" s="0">
+      <c r="S24">
         <v>3.5267554737410918</v>
       </c>
-      <c r="T24" s="0">
+      <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24" s="0">
+      <c r="U24">
         <v>0.53719117452767873</v>
       </c>
-      <c r="V24" s="0">
+      <c r="V24">
         <v>-0.18294169824415718</v>
       </c>
-      <c r="W24" s="0">
+      <c r="W24">
         <v>55.991629626615378</v>
       </c>
-      <c r="X24" s="0">
+      <c r="X24">
         <v>85.016482734751676</v>
       </c>
-      <c r="Y24" s="0">
+      <c r="Y24">
         <v>77.611293053807046</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>460</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>565</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>198</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>222</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>1820.2700913242008</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>656.45338512042531</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>998.50684931506862</v>
       </c>
-      <c r="I25" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J25" s="0">
+      <c r="I25">
+        <v>4095</v>
+      </c>
+      <c r="J25">
         <v>1636.1301369863013</v>
       </c>
-      <c r="K25" s="0">
+      <c r="K25">
         <v>1116.9315068493152</v>
       </c>
-      <c r="L25" s="0">
+      <c r="L25">
         <v>1278.9863013698632</v>
       </c>
-      <c r="M25" s="0">
+      <c r="M25">
         <v>1636.1301369863013</v>
       </c>
-      <c r="N25" s="0">
+      <c r="N25">
         <v>2344.8082191780823</v>
       </c>
-      <c r="O25" s="0">
+      <c r="O25">
         <v>2772.3835616438355</v>
       </c>
-      <c r="P25" s="0">
+      <c r="P25">
         <v>3040.3972602739727</v>
       </c>
-      <c r="Q25" s="0">
+      <c r="Q25">
         <v>0.8070005630663375</v>
       </c>
-      <c r="R25" s="0">
+      <c r="R25">
         <v>2.8073568918909468</v>
       </c>
-      <c r="S25" s="0">
+      <c r="S25">
         <v>3.1264888433489459</v>
       </c>
-      <c r="T25" s="0">
-        <v>0.0021505376344086021</v>
-      </c>
-      <c r="U25" s="0">
-        <v>0.055913978494623658</v>
-      </c>
-      <c r="V25" s="0">
+      <c r="T25">
+        <v>2.1505376344086021E-3</v>
+      </c>
+      <c r="U25">
+        <v>5.5913978494623658E-2</v>
+      </c>
+      <c r="V25">
         <v>-0.19978902714585089</v>
       </c>
-      <c r="W25" s="0">
+      <c r="W25">
         <v>89.005053282699649</v>
       </c>
-      <c r="X25" s="0">
+      <c r="X25">
         <v>165.93700818868683</v>
       </c>
-      <c r="Y25" s="0">
+      <c r="Y25">
         <v>135.84831802136449</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>190</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>197</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>54</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>61</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>3172.7114683985428</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>403.52918327910714</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>2576.9158878504672</v>
       </c>
-      <c r="I26" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J26" s="0">
+      <c r="I26">
+        <v>4095</v>
+      </c>
+      <c r="J26">
         <v>3128.6565420560746</v>
       </c>
-      <c r="K26" s="0">
+      <c r="K26">
         <v>2705.7616822429909</v>
       </c>
-      <c r="L26" s="0">
+      <c r="L26">
         <v>2804.9474299065414</v>
       </c>
-      <c r="M26" s="0">
+      <c r="M26">
         <v>3128.6565420560746</v>
       </c>
-      <c r="N26" s="0">
+      <c r="N26">
         <v>3494.623247663551</v>
       </c>
-      <c r="O26" s="0">
+      <c r="O26">
         <v>3723.7710280373831</v>
       </c>
-      <c r="P26" s="0">
+      <c r="P26">
         <v>3849.108644859813</v>
       </c>
-      <c r="Q26" s="0">
+      <c r="Q26">
         <v>0.42327744574358683</v>
       </c>
-      <c r="R26" s="0">
+      <c r="R26">
         <v>2.0043736505042258</v>
       </c>
-      <c r="S26" s="0">
+      <c r="S26">
         <v>2.5462851724542643</v>
       </c>
-      <c r="T26" s="0">
+      <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26" s="0">
+      <c r="U26">
         <v>0.55932203389830504</v>
       </c>
-      <c r="V26" s="0">
-        <v>-0.072919396096411404</v>
-      </c>
-      <c r="W26" s="0">
+      <c r="V26">
+        <v>-7.2919396096411404E-2</v>
+      </c>
+      <c r="W26">
         <v>197.09551022805215</v>
       </c>
-      <c r="X26" s="0">
+      <c r="X26">
         <v>332.80843638571542</v>
       </c>
-      <c r="Y26" s="0">
+      <c r="Y26">
         <v>128.79930165178018</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>446</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>580</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>105</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>198</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <v>3118.8640393189416</v>
       </c>
-      <c r="G27" s="0">
+      <c r="G27">
         <v>890.40652538104234</v>
       </c>
-      <c r="H27" s="0">
+      <c r="H27">
         <v>1188.0405127031358</v>
       </c>
-      <c r="I27" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J27" s="0">
+      <c r="I27">
+        <v>4095</v>
+      </c>
+      <c r="J27">
         <v>3282.2485694666975</v>
       </c>
-      <c r="K27" s="0">
+      <c r="K27">
         <v>1756.0354772259097</v>
       </c>
-      <c r="L27" s="0">
+      <c r="L27">
         <v>2407.5113298237584</v>
       </c>
-      <c r="M27" s="0">
+      <c r="M27">
         <v>3282.2485694666975</v>
       </c>
-      <c r="N27" s="0">
-        <v>4095</v>
-      </c>
-      <c r="O27" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P27" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q27" s="0">
+      <c r="N27">
+        <v>4095</v>
+      </c>
+      <c r="O27">
+        <v>4095</v>
+      </c>
+      <c r="P27">
+        <v>4095</v>
+      </c>
+      <c r="Q27">
         <v>-0.47858878393156201</v>
       </c>
-      <c r="R27" s="0">
+      <c r="R27">
         <v>1.9557411085997032</v>
       </c>
-      <c r="S27" s="0">
+      <c r="S27">
         <v>3.3100064458730754</v>
       </c>
-      <c r="T27" s="0">
+      <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27" s="0">
+      <c r="U27">
         <v>0.58230716185597475</v>
       </c>
-      <c r="V27" s="0">
+      <c r="V27">
         <v>-0.16085537154289842</v>
       </c>
-      <c r="W27" s="0">
+      <c r="W27">
         <v>74.600453374686339</v>
       </c>
-      <c r="X27" s="0">
+      <c r="X27">
         <v>111.16545734227984</v>
       </c>
-      <c r="Y27" s="0">
+      <c r="Y27">
         <v>115.608403882762</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>385</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>416</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>197</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>203</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <v>2008.5805404249575</v>
       </c>
-      <c r="G28" s="0">
+      <c r="G28">
         <v>631.14947384490881</v>
       </c>
-      <c r="H28" s="0">
+      <c r="H28">
         <v>1081.2189947780678</v>
       </c>
-      <c r="I28" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J28" s="0">
+      <c r="I28">
+        <v>4095</v>
+      </c>
+      <c r="J28">
         <v>2089.5993798955615</v>
       </c>
-      <c r="K28" s="0">
+      <c r="K28">
         <v>1218.6099869451696</v>
       </c>
-      <c r="L28" s="0">
+      <c r="L28">
         <v>1436.7248694516973</v>
       </c>
-      <c r="M28" s="0">
+      <c r="M28">
         <v>2089.5993798955615</v>
       </c>
-      <c r="N28" s="0">
+      <c r="N28">
         <v>2483.1951697127938</v>
       </c>
-      <c r="O28" s="0">
+      <c r="O28">
         <v>2773.881364229765</v>
       </c>
-      <c r="P28" s="0">
+      <c r="P28">
         <v>3060.5580939947777</v>
       </c>
-      <c r="Q28" s="0">
+      <c r="Q28">
         <v>0.46455393357941821</v>
       </c>
-      <c r="R28" s="0">
+      <c r="R28">
         <v>2.8871132396804149</v>
       </c>
-      <c r="S28" s="0">
+      <c r="S28">
         <v>3.1374511570553829</v>
       </c>
-      <c r="T28" s="0">
+      <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28" s="0">
-        <v>0.063218390804597707</v>
-      </c>
-      <c r="V28" s="0">
+      <c r="U28">
+        <v>6.3218390804597707E-2</v>
+      </c>
+      <c r="V28">
         <v>-0.17743375377624848</v>
       </c>
-      <c r="W28" s="0">
+      <c r="W28">
         <v>252.44960507113549</v>
       </c>
-      <c r="X28" s="0">
+      <c r="X28">
         <v>556.22320157538195</v>
       </c>
-      <c r="Y28" s="0">
+      <c r="Y28">
         <v>291.89840865236516</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>392</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>543</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>126</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>232</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29">
         <v>3021.3634317685601</v>
       </c>
-      <c r="G29" s="0">
+      <c r="G29">
         <v>857.67476733865317</v>
       </c>
-      <c r="H29" s="0">
+      <c r="H29">
         <v>1250.9636072327764</v>
       </c>
-      <c r="I29" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J29" s="0">
+      <c r="I29">
+        <v>4095</v>
+      </c>
+      <c r="J29">
         <v>3125.1595330739297</v>
       </c>
-      <c r="K29" s="0">
+      <c r="K29">
         <v>1713.2952620737012</v>
       </c>
-      <c r="L29" s="0">
+      <c r="L29">
         <v>2347.3376058594645</v>
       </c>
-      <c r="M29" s="0">
+      <c r="M29">
         <v>3125.1595330739297</v>
       </c>
-      <c r="N29" s="0">
+      <c r="N29">
         <v>3821.6875715266651</v>
       </c>
-      <c r="O29" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P29" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q29" s="0">
+      <c r="O29">
+        <v>4095</v>
+      </c>
+      <c r="P29">
+        <v>4095</v>
+      </c>
+      <c r="Q29">
         <v>-0.32719631237050117</v>
       </c>
-      <c r="R29" s="0">
+      <c r="R29">
         <v>1.9357601985786641</v>
       </c>
-      <c r="S29" s="0">
+      <c r="S29">
         <v>3.4056528338076424</v>
       </c>
-      <c r="T29" s="0">
+      <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29" s="0">
+      <c r="U29">
         <v>0.54355613139242431</v>
       </c>
-      <c r="V29" s="0">
+      <c r="V29">
         <v>-0.1620690760596728</v>
       </c>
-      <c r="W29" s="0">
+      <c r="W29">
         <v>68.7335844595042</v>
       </c>
-      <c r="X29" s="0">
+      <c r="X29">
         <v>99.459330109661948</v>
       </c>
-      <c r="Y29" s="0">
+      <c r="Y29">
         <v>108.30156037799182</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>189</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>199</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>18</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>42</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30">
         <v>3099.7857427584372</v>
       </c>
-      <c r="G30" s="0">
+      <c r="G30">
         <v>377.79237595102796</v>
       </c>
-      <c r="H30" s="0">
+      <c r="H30">
         <v>2572.9929577464786</v>
       </c>
-      <c r="I30" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J30" s="0">
+      <c r="I30">
+        <v>4095</v>
+      </c>
+      <c r="J30">
         <v>3000.7570422535209</v>
       </c>
-      <c r="K30" s="0">
+      <c r="K30">
         <v>2674.5669014084506</v>
       </c>
-      <c r="L30" s="0">
+      <c r="L30">
         <v>2794.0845070422538</v>
       </c>
-      <c r="M30" s="0">
+      <c r="M30">
         <v>3000.7570422535209</v>
       </c>
-      <c r="N30" s="0">
+      <c r="N30">
         <v>3370.8450704225352</v>
       </c>
-      <c r="O30" s="0">
+      <c r="O30">
         <v>3645.7676056338037</v>
       </c>
-      <c r="P30" s="0">
+      <c r="P30">
         <v>3833.5352112676051</v>
       </c>
-      <c r="Q30" s="0">
+      <c r="Q30">
         <v>0.71472828615138173</v>
       </c>
-      <c r="R30" s="0">
+      <c r="R30">
         <v>2.6922036927780639</v>
       </c>
-      <c r="S30" s="0">
+      <c r="S30">
         <v>2.5040617059763788</v>
       </c>
-      <c r="T30" s="0">
+      <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30" s="0">
+      <c r="U30">
         <v>0.5</v>
       </c>
-      <c r="V30" s="0">
-        <v>-0.068300843069936557</v>
-      </c>
-      <c r="W30" s="0">
+      <c r="V30">
+        <v>-6.8300843069936557E-2</v>
+      </c>
+      <c r="W30">
         <v>117.63098952006438</v>
       </c>
-      <c r="X30" s="0">
+      <c r="X30">
         <v>235.83450445657189</v>
       </c>
-      <c r="Y30" s="0">
+      <c r="Y30">
         <v>122.28362101695318</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>446</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>598</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>144</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31">
         <v>2984.5388927270569</v>
       </c>
-      <c r="G31" s="0">
+      <c r="G31">
         <v>940.84067791080838</v>
       </c>
-      <c r="H31" s="0">
+      <c r="H31">
         <v>1034.7006179903867</v>
       </c>
-      <c r="I31" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J31" s="0">
+      <c r="I31">
+        <v>4095</v>
+      </c>
+      <c r="J31">
         <v>3100.9463263904781</v>
       </c>
-      <c r="K31" s="0">
+      <c r="K31">
         <v>1560.3865186541543</v>
       </c>
-      <c r="L31" s="0">
+      <c r="L31">
         <v>2230.9267566948956</v>
       </c>
-      <c r="M31" s="0">
+      <c r="M31">
         <v>3100.9463263904781</v>
       </c>
-      <c r="N31" s="0">
+      <c r="N31">
         <v>3921.9146257724883</v>
       </c>
-      <c r="O31" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P31" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q31" s="0">
+      <c r="O31">
+        <v>4095</v>
+      </c>
+      <c r="P31">
+        <v>4095</v>
+      </c>
+      <c r="Q31">
         <v>-0.3920808405565831</v>
       </c>
-      <c r="R31" s="0">
+      <c r="R31">
         <v>1.8969601675523518</v>
       </c>
-      <c r="S31" s="0">
+      <c r="S31">
         <v>3.4984480771287942</v>
       </c>
-      <c r="T31" s="0">
+      <c r="T31">
         <v>0</v>
       </c>
-      <c r="U31" s="0">
+      <c r="U31">
         <v>0.53020713463751434</v>
       </c>
-      <c r="V31" s="0">
+      <c r="V31">
         <v>-0.17922583079388121</v>
       </c>
-      <c r="W31" s="0">
+      <c r="W31">
         <v>77.355819975085311</v>
       </c>
-      <c r="X31" s="0">
+      <c r="X31">
         <v>116.31273282496741</v>
       </c>
-      <c r="Y31" s="0">
+      <c r="Y31">
         <v>117.68397007360709</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>186</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>195</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>163</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>175</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32">
         <v>2818.0288870008494</v>
       </c>
-      <c r="G32" s="0">
+      <c r="G32">
         <v>338.40899410959287</v>
       </c>
-      <c r="H32" s="0">
+      <c r="H32">
         <v>2369.5454545454545</v>
       </c>
-      <c r="I32" s="0">
+      <c r="I32">
         <v>3911.818181818182</v>
       </c>
-      <c r="J32" s="0">
+      <c r="J32">
         <v>2727.0454545454545</v>
       </c>
-      <c r="K32" s="0">
+      <c r="K32">
         <v>2461.1363636363635</v>
       </c>
-      <c r="L32" s="0">
+      <c r="L32">
         <v>2555.681818181818</v>
       </c>
-      <c r="M32" s="0">
+      <c r="M32">
         <v>2727.0454545454545</v>
       </c>
-      <c r="N32" s="0">
+      <c r="N32">
         <v>2970.7954545454545</v>
       </c>
-      <c r="O32" s="0">
+      <c r="O32">
         <v>3311.4545454545455</v>
       </c>
-      <c r="P32" s="0">
+      <c r="P32">
         <v>3508.8181818181815</v>
       </c>
-      <c r="Q32" s="0">
+      <c r="Q32">
         <v>1.082736582422019</v>
       </c>
-      <c r="R32" s="0">
+      <c r="R32">
         <v>3.7949768844483143</v>
       </c>
-      <c r="S32" s="0">
+      <c r="S32">
         <v>2.2863638053262392</v>
       </c>
-      <c r="T32" s="0">
+      <c r="T32">
         <v>0</v>
       </c>
-      <c r="U32" s="0">
+      <c r="U32">
         <v>0.24299065420560748</v>
       </c>
-      <c r="V32" s="0">
-        <v>-0.065343703272047415</v>
-      </c>
-      <c r="W32" s="0">
+      <c r="V32">
+        <v>-6.5343703272047415E-2</v>
+      </c>
+      <c r="W32">
         <v>123.47771264184746</v>
       </c>
-      <c r="X32" s="0">
+      <c r="X32">
         <v>232.01802225858992</v>
       </c>
-      <c r="Y32" s="0">
+      <c r="Y32">
         <v>116.71009866986275</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>422</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>570</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>155</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>249</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33">
         <v>2991.6743723242903</v>
       </c>
-      <c r="G33" s="0">
+      <c r="G33">
         <v>937.61449746704238</v>
       </c>
-      <c r="H33" s="0">
+      <c r="H33">
         <v>1197.9757381551842</v>
       </c>
-      <c r="I33" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J33" s="0">
+      <c r="I33">
+        <v>4095</v>
+      </c>
+      <c r="J33">
         <v>3077.2330052643624</v>
       </c>
-      <c r="K33" s="0">
+      <c r="K33">
         <v>1631.688944838636</v>
       </c>
-      <c r="L33" s="0">
+      <c r="L33">
         <v>2177.626459143969</v>
       </c>
-      <c r="M33" s="0">
+      <c r="M33">
         <v>3077.2330052643624</v>
       </c>
-      <c r="N33" s="0">
+      <c r="N33">
         <v>4060.5703822384985</v>
       </c>
-      <c r="O33" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P33" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q33" s="0">
+      <c r="O33">
+        <v>4095</v>
+      </c>
+      <c r="P33">
+        <v>4095</v>
+      </c>
+      <c r="Q33">
         <v>-0.25858813414671306</v>
       </c>
-      <c r="R33" s="0">
+      <c r="R33">
         <v>1.6950340959766133</v>
       </c>
-      <c r="S33" s="0">
+      <c r="S33">
         <v>3.3596462585911184</v>
       </c>
-      <c r="T33" s="0">
+      <c r="T33">
         <v>0</v>
       </c>
-      <c r="U33" s="0">
+      <c r="U33">
         <v>0.51917732073374101</v>
       </c>
-      <c r="V33" s="0">
+      <c r="V33">
         <v>-0.17841421523398271</v>
       </c>
-      <c r="W33" s="0">
+      <c r="W33">
         <v>75.550277678493259</v>
       </c>
-      <c r="X33" s="0">
+      <c r="X33">
         <v>118.17608044546139</v>
       </c>
-      <c r="Y33" s="0">
+      <c r="Y33">
         <v>117.03583045953035</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>415</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>599</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>89</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>200</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34">
         <v>2985.7604872009711</v>
       </c>
-      <c r="G34" s="0">
+      <c r="G34">
         <v>892.61179369316324</v>
       </c>
-      <c r="H34" s="0">
+      <c r="H34">
         <v>957.15587090867473</v>
       </c>
-      <c r="I34" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J34" s="0">
+      <c r="I34">
+        <v>4095</v>
+      </c>
+      <c r="J34">
         <v>3096.041199359121</v>
       </c>
-      <c r="K34" s="0">
+      <c r="K34">
         <v>1678.7469214923324</v>
       </c>
-      <c r="L34" s="0">
+      <c r="L34">
         <v>2320.5312428473335</v>
       </c>
-      <c r="M34" s="0">
+      <c r="M34">
         <v>3096.041199359121</v>
       </c>
-      <c r="N34" s="0">
+      <c r="N34">
         <v>3802.2545204852372</v>
       </c>
-      <c r="O34" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P34" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q34" s="0">
+      <c r="O34">
+        <v>4095</v>
+      </c>
+      <c r="P34">
+        <v>4095</v>
+      </c>
+      <c r="Q34">
         <v>-0.41351932081829523</v>
       </c>
-      <c r="R34" s="0">
+      <c r="R34">
         <v>2.0849518890831864</v>
       </c>
-      <c r="S34" s="0">
+      <c r="S34">
         <v>3.5203797332645239</v>
       </c>
-      <c r="T34" s="0">
-        <v>0.0054192101656907934</v>
-      </c>
-      <c r="U34" s="0">
+      <c r="T34">
+        <v>5.4192101656907934E-3</v>
+      </c>
+      <c r="U34">
         <v>0.53295128939828085</v>
       </c>
-      <c r="V34" s="0">
+      <c r="V34">
         <v>-0.17020571070712021</v>
       </c>
-      <c r="W34" s="0">
+      <c r="W34">
         <v>60.054041768315706</v>
       </c>
-      <c r="X34" s="0">
+      <c r="X34">
         <v>91.012277251181985</v>
       </c>
-      <c r="Y34" s="0">
+      <c r="Y34">
         <v>88.362005914015285</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>437</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>590</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>119</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>225</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35">
         <v>2992.0471801697054</v>
       </c>
-      <c r="G35" s="0">
+      <c r="G35">
         <v>946.46963433945928</v>
       </c>
-      <c r="H35" s="0">
+      <c r="H35">
         <v>1036.7001602197299</v>
       </c>
-      <c r="I35" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J35" s="0">
+      <c r="I35">
+        <v>4095</v>
+      </c>
+      <c r="J35">
         <v>3098.4156557564661</v>
       </c>
-      <c r="K35" s="0">
+      <c r="K35">
         <v>1594.5099565117875</v>
       </c>
-      <c r="L35" s="0">
+      <c r="L35">
         <v>2195.0599679560542</v>
       </c>
-      <c r="M35" s="0">
+      <c r="M35">
         <v>3098.4156557564661</v>
       </c>
-      <c r="N35" s="0">
+      <c r="N35">
         <v>3947.4712748912793</v>
       </c>
-      <c r="O35" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P35" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q35" s="0">
+      <c r="O35">
+        <v>4095</v>
+      </c>
+      <c r="P35">
+        <v>4095</v>
+      </c>
+      <c r="Q35">
         <v>-0.37550459215925264</v>
       </c>
-      <c r="R35" s="0">
+      <c r="R35">
         <v>1.8467719630044257</v>
       </c>
-      <c r="S35" s="0">
+      <c r="S35">
         <v>3.4774093626376215</v>
       </c>
-      <c r="T35" s="0">
+      <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35" s="0">
+      <c r="U35">
         <v>0.529105867742937</v>
       </c>
-      <c r="V35" s="0">
+      <c r="V35">
         <v>-0.17973379014136759</v>
       </c>
-      <c r="W35" s="0">
+      <c r="W35">
         <v>72.627133342940013</v>
       </c>
-      <c r="X35" s="0">
+      <c r="X35">
         <v>110.774942524696</v>
       </c>
-      <c r="Y35" s="0">
+      <c r="Y35">
         <v>120.76740426235756</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>129</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>141</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>33</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>38</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36">
         <v>2272.3888091822096</v>
       </c>
-      <c r="G36" s="0">
+      <c r="G36">
         <v>273.95697131976516</v>
       </c>
-      <c r="H36" s="0">
+      <c r="H36">
         <v>1795.5853658536585</v>
       </c>
-      <c r="I36" s="0">
+      <c r="I36">
         <v>2745.5365853658536</v>
       </c>
-      <c r="J36" s="0">
+      <c r="J36">
         <v>2294.9756097560976</v>
       </c>
-      <c r="K36" s="0">
+      <c r="K36">
         <v>1904.3414634146341</v>
       </c>
-      <c r="L36" s="0">
+      <c r="L36">
         <v>2046.3902439024391</v>
       </c>
-      <c r="M36" s="0">
+      <c r="M36">
         <v>2294.9756097560976</v>
       </c>
-      <c r="N36" s="0">
+      <c r="N36">
         <v>2518.0365853658536</v>
       </c>
-      <c r="O36" s="0">
+      <c r="O36">
         <v>2653.2048780487803</v>
       </c>
-      <c r="P36" s="0">
+      <c r="P36">
         <v>2684.278048780488</v>
       </c>
-      <c r="Q36" s="0">
-        <v>-0.020261409277679034</v>
-      </c>
-      <c r="R36" s="0">
+      <c r="Q36">
+        <v>-2.0261409277679034E-2</v>
+      </c>
+      <c r="R36">
         <v>1.7950113558241074</v>
       </c>
-      <c r="S36" s="0">
+      <c r="S36">
         <v>2.0697194178814859</v>
       </c>
-      <c r="T36" s="0">
+      <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36" s="0">
+      <c r="U36">
         <v>0</v>
       </c>
-      <c r="V36" s="0">
-        <v>-0.069930582651236861</v>
-      </c>
-      <c r="W36" s="0">
+      <c r="V36">
+        <v>-6.9930582651236861E-2</v>
+      </c>
+      <c r="W36">
         <v>130.22336385178431</v>
       </c>
-      <c r="X36" s="0">
+      <c r="X36">
         <v>243.64399035593584</v>
       </c>
-      <c r="Y36" s="0">
+      <c r="Y36">
         <v>88.552602695222291</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>417</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>603</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>72</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>198</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37">
         <v>2832.9479132070387</v>
       </c>
-      <c r="G37" s="0">
+      <c r="G37">
         <v>977.22559233511936</v>
       </c>
-      <c r="H37" s="0">
+      <c r="H37">
         <v>975.90157930876637</v>
       </c>
-      <c r="I37" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J37" s="0">
+      <c r="I37">
+        <v>4095</v>
+      </c>
+      <c r="J37">
         <v>2933.8908216983291</v>
       </c>
-      <c r="K37" s="0">
+      <c r="K37">
         <v>1390.1817349507896</v>
       </c>
-      <c r="L37" s="0">
+      <c r="L37">
         <v>2023.7241931792173</v>
       </c>
-      <c r="M37" s="0">
+      <c r="M37">
         <v>2933.8908216983291</v>
       </c>
-      <c r="N37" s="0">
+      <c r="N37">
         <v>3730.7084000915543</v>
       </c>
-      <c r="O37" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P37" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q37" s="0">
+      <c r="O37">
+        <v>4095</v>
+      </c>
+      <c r="P37">
+        <v>4095</v>
+      </c>
+      <c r="Q37">
         <v>-0.26602350668103814</v>
       </c>
-      <c r="R37" s="0">
+      <c r="R37">
         <v>1.8081113902392891</v>
       </c>
-      <c r="S37" s="0">
+      <c r="S37">
         <v>3.6073934218215125</v>
       </c>
-      <c r="T37" s="0">
-        <v>0.0047094837228468826</v>
-      </c>
-      <c r="U37" s="0">
+      <c r="T37">
+        <v>4.7094837228468826E-3</v>
+      </c>
+      <c r="U37">
         <v>0.47907223170659918</v>
       </c>
-      <c r="V37" s="0">
+      <c r="V37">
         <v>-0.19771686242050723</v>
       </c>
-      <c r="W37" s="0">
+      <c r="W37">
         <v>49.280783862530193</v>
       </c>
-      <c r="X37" s="0">
+      <c r="X37">
         <v>80.685692083445417</v>
       </c>
-      <c r="Y37" s="0">
+      <c r="Y37">
         <v>80.829134922332145</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>435</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>586</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>23</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>139</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38">
         <v>3031.1656229752562</v>
       </c>
-      <c r="G38" s="0">
+      <c r="G38">
         <v>856.87666351103269</v>
       </c>
-      <c r="H38" s="0">
+      <c r="H38">
         <v>1113.0576791027695</v>
       </c>
-      <c r="I38" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J38" s="0">
+      <c r="I38">
+        <v>4095</v>
+      </c>
+      <c r="J38">
         <v>3101.4774547951474</v>
       </c>
-      <c r="K38" s="0">
+      <c r="K38">
         <v>1739.7267109178301</v>
       </c>
-      <c r="L38" s="0">
+      <c r="L38">
         <v>2437.2545204852368</v>
       </c>
-      <c r="M38" s="0">
+      <c r="M38">
         <v>3101.4774547951474</v>
       </c>
-      <c r="N38" s="0">
+      <c r="N38">
         <v>3837.9338521400778</v>
       </c>
-      <c r="O38" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P38" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q38" s="0">
+      <c r="O38">
+        <v>4095</v>
+      </c>
+      <c r="P38">
+        <v>4095</v>
+      </c>
+      <c r="Q38">
         <v>-0.40440995549598441</v>
       </c>
-      <c r="R38" s="0">
+      <c r="R38">
         <v>2.129134511529597</v>
       </c>
-      <c r="S38" s="0">
+      <c r="S38">
         <v>3.4302620989130421</v>
       </c>
-      <c r="T38" s="0">
+      <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38" s="0">
+      <c r="U38">
         <v>0.5483680401713189</v>
       </c>
-      <c r="V38" s="0">
+      <c r="V38">
         <v>-0.16073458119043016</v>
       </c>
-      <c r="W38" s="0">
+      <c r="W38">
         <v>65.392750865194969</v>
       </c>
-      <c r="X38" s="0">
+      <c r="X38">
         <v>101.29881018497784</v>
       </c>
-      <c r="Y38" s="0">
+      <c r="Y38">
         <v>104.74215791114763</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>417</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>582</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>138</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>221</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39">
         <v>2965.8451056387225</v>
       </c>
-      <c r="G39" s="0">
+      <c r="G39">
         <v>966.34669496997776</v>
       </c>
-      <c r="H39" s="0">
+      <c r="H39">
         <v>1053.6962691691463</v>
       </c>
-      <c r="I39" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J39" s="0">
+      <c r="I39">
+        <v>4095</v>
+      </c>
+      <c r="J39">
         <v>3076.8580910963606</v>
       </c>
-      <c r="K39" s="0">
+      <c r="K39">
         <v>1503.5307850766765</v>
       </c>
-      <c r="L39" s="0">
+      <c r="L39">
         <v>2176.407988097963</v>
       </c>
-      <c r="M39" s="0">
+      <c r="M39">
         <v>3076.8580910963606</v>
       </c>
-      <c r="N39" s="0">
+      <c r="N39">
         <v>4017.3927672236209</v>
       </c>
-      <c r="O39" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P39" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q39" s="0">
+      <c r="O39">
+        <v>4095</v>
+      </c>
+      <c r="P39">
+        <v>4095</v>
+      </c>
+      <c r="Q39">
         <v>-0.35191850597126406</v>
       </c>
-      <c r="R39" s="0">
+      <c r="R39">
         <v>1.8287280619931894</v>
       </c>
-      <c r="S39" s="0">
+      <c r="S39">
         <v>3.4522808682232831</v>
       </c>
-      <c r="T39" s="0">
+      <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39" s="0">
+      <c r="U39">
         <v>0.52198784411869859</v>
       </c>
-      <c r="V39" s="0">
+      <c r="V39">
         <v>-0.18523037521988317</v>
       </c>
-      <c r="W39" s="0">
+      <c r="W39">
         <v>73.238148862702985</v>
       </c>
-      <c r="X39" s="0">
+      <c r="X39">
         <v>108.76809256287807</v>
       </c>
-      <c r="Y39" s="0">
+      <c r="Y39">
         <v>117.59824574672407</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>423</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>603</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>97</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>215</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40">
         <v>2859.6907427249139</v>
       </c>
-      <c r="G40" s="0">
+      <c r="G40">
         <v>965.81974503309141</v>
       </c>
-      <c r="H40" s="0">
+      <c r="H40">
         <v>1012.0807965209431</v>
       </c>
-      <c r="I40" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J40" s="0">
+      <c r="I40">
+        <v>4095</v>
+      </c>
+      <c r="J40">
         <v>2930.0791943236441</v>
       </c>
-      <c r="K40" s="0">
+      <c r="K40">
         <v>1446.7312886243992</v>
       </c>
-      <c r="L40" s="0">
+      <c r="L40">
         <v>2043.0947585259785</v>
       </c>
-      <c r="M40" s="0">
+      <c r="M40">
         <v>2930.0791943236441</v>
       </c>
-      <c r="N40" s="0">
+      <c r="N40">
         <v>3766.5127031357288</v>
       </c>
-      <c r="O40" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P40" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q40" s="0">
+      <c r="O40">
+        <v>4095</v>
+      </c>
+      <c r="P40">
+        <v>4095</v>
+      </c>
+      <c r="Q40">
         <v>-0.24608477993615818</v>
       </c>
-      <c r="R40" s="0">
+      <c r="R40">
         <v>1.7632070674784917</v>
       </c>
-      <c r="S40" s="0">
+      <c r="S40">
         <v>3.5824814651825547</v>
       </c>
-      <c r="T40" s="0">
+      <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40" s="0">
+      <c r="U40">
         <v>0.4841338974614236</v>
       </c>
-      <c r="V40" s="0">
+      <c r="V40">
         <v>-0.19356536549646619</v>
       </c>
-      <c r="W40" s="0">
+      <c r="W40">
         <v>54.136331376538479</v>
       </c>
-      <c r="X40" s="0">
+      <c r="X40">
         <v>84.997065242003529</v>
       </c>
-      <c r="Y40" s="0">
+      <c r="Y40">
         <v>79.3469137857047</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>536</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>558</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>231</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>247</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41">
         <v>1903.906925037011</v>
       </c>
-      <c r="G41" s="0">
+      <c r="G41">
         <v>839.05122335120529</v>
       </c>
-      <c r="H41" s="0">
+      <c r="H41">
         <v>985.05998800239945</v>
       </c>
-      <c r="I41" s="0">
+      <c r="I41">
         <v>4094.9999999999995</v>
       </c>
-      <c r="J41" s="0">
+      <c r="J41">
         <v>1637.8771745650868</v>
       </c>
-      <c r="K41" s="0">
+      <c r="K41">
         <v>1068.3356328734253</v>
       </c>
-      <c r="L41" s="0">
+      <c r="L41">
         <v>1177.8959208158367</v>
       </c>
-      <c r="M41" s="0">
+      <c r="M41">
         <v>1637.8771745650868</v>
       </c>
-      <c r="N41" s="0">
+      <c r="N41">
         <v>2395.0959808038388</v>
       </c>
-      <c r="O41" s="0">
+      <c r="O41">
         <v>3314.5671865626878</v>
       </c>
-      <c r="P41" s="0">
+      <c r="P41">
         <v>3624.5785842831428</v>
       </c>
-      <c r="Q41" s="0">
+      <c r="Q41">
         <v>0.88335795042163456</v>
       </c>
-      <c r="R41" s="0">
+      <c r="R41">
         <v>2.6342142765945464</v>
       </c>
-      <c r="S41" s="0">
+      <c r="S41">
         <v>3.3048113054039381</v>
       </c>
-      <c r="T41" s="0">
-        <v>0.01834862385321101</v>
-      </c>
-      <c r="U41" s="0">
+      <c r="T41">
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="U41">
         <v>0.15137614678899083</v>
       </c>
-      <c r="V41" s="0">
+      <c r="V41">
         <v>-0.24138931255236695</v>
       </c>
-      <c r="W41" s="0">
+      <c r="W41">
         <v>141.90931840163182</v>
       </c>
-      <c r="X41" s="0">
+      <c r="X41">
         <v>433.14704795261167</v>
       </c>
-      <c r="Y41" s="0">
+      <c r="Y41">
         <v>310.05779914664845</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>186</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>199</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>18</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>40</v>
       </c>
-      <c r="F42" s="0">
+      <c r="F42">
         <v>1715.3555184960583</v>
       </c>
-      <c r="G42" s="0">
+      <c r="G42">
         <v>238.89546836389115</v>
       </c>
-      <c r="H42" s="0">
+      <c r="H42">
         <v>1419.5296391752577</v>
       </c>
-      <c r="I42" s="0">
+      <c r="I42">
         <v>2367.6417525773195</v>
       </c>
-      <c r="J42" s="0">
+      <c r="J42">
         <v>1628.853092783505</v>
       </c>
-      <c r="K42" s="0">
+      <c r="K42">
         <v>1464.9123711340208</v>
       </c>
-      <c r="L42" s="0">
+      <c r="L42">
         <v>1539.1430412371135</v>
       </c>
-      <c r="M42" s="0">
+      <c r="M42">
         <v>1628.853092783505</v>
       </c>
-      <c r="N42" s="0">
+      <c r="N42">
         <v>1853.5679768041239</v>
       </c>
-      <c r="O42" s="0">
+      <c r="O42">
         <v>2077.0515463917523</v>
       </c>
-      <c r="P42" s="0">
+      <c r="P42">
         <v>2216.3659793814431</v>
       </c>
-      <c r="Q42" s="0">
+      <c r="Q42">
         <v>0.95905962349872864</v>
       </c>
-      <c r="R42" s="0">
+      <c r="R42">
         <v>2.9654329846469607</v>
       </c>
-      <c r="S42" s="0">
+      <c r="S42">
         <v>1.5966247589520446</v>
       </c>
-      <c r="T42" s="0">
+      <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42" s="0">
+      <c r="U42">
         <v>0</v>
       </c>
-      <c r="V42" s="0">
-        <v>-0.076000293589870038</v>
-      </c>
-      <c r="W42" s="0">
+      <c r="V42">
+        <v>-7.6000293589870038E-2</v>
+      </c>
+      <c r="W42">
         <v>53.535436331505615</v>
       </c>
-      <c r="X42" s="0">
+      <c r="X42">
         <v>120.07290480375862</v>
       </c>
-      <c r="Y42" s="0">
+      <c r="Y42">
         <v>67.448852517198304</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>183</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>201</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>102</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>134</v>
       </c>
-      <c r="F43" s="0">
+      <c r="F43">
         <v>1699.9971910112361</v>
       </c>
-      <c r="G43" s="0">
+      <c r="G43">
         <v>1124.1526173230843</v>
       </c>
-      <c r="H43" s="0">
+      <c r="H43">
         <v>801</v>
       </c>
-      <c r="I43" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J43" s="0">
+      <c r="I43">
+        <v>4095</v>
+      </c>
+      <c r="J43">
         <v>1113.5</v>
       </c>
-      <c r="K43" s="0">
-        <v>844.29999999999995</v>
-      </c>
-      <c r="L43" s="0">
+      <c r="K43">
+        <v>844.3</v>
+      </c>
+      <c r="L43">
         <v>904.5</v>
       </c>
-      <c r="M43" s="0">
+      <c r="M43">
         <v>1113.5</v>
       </c>
-      <c r="N43" s="0">
+      <c r="N43">
         <v>2144</v>
       </c>
-      <c r="O43" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P43" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q43" s="0">
+      <c r="O43">
+        <v>4095</v>
+      </c>
+      <c r="P43">
+        <v>4095</v>
+      </c>
+      <c r="Q43">
         <v>1.2561554800375048</v>
       </c>
-      <c r="R43" s="0">
+      <c r="R43">
         <v>3.0467670164253975</v>
       </c>
-      <c r="S43" s="0">
+      <c r="S43">
         <v>2.9545612130752552</v>
       </c>
-      <c r="T43" s="0">
+      <c r="T43">
         <v>0.40168539325842695</v>
       </c>
-      <c r="U43" s="0">
+      <c r="U43">
         <v>0.18258426966292135</v>
       </c>
-      <c r="V43" s="0">
+      <c r="V43">
         <v>-0.33029491009696765</v>
       </c>
-      <c r="W43" s="0">
+      <c r="W43">
         <v>136.81190704795654</v>
       </c>
-      <c r="X43" s="0">
+      <c r="X43">
         <v>349.06737182939167</v>
       </c>
-      <c r="Y43" s="0">
+      <c r="Y43">
         <v>393.57093048632055</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>551</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>561</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>143</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>152</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44">
         <v>2561.0581841432227</v>
       </c>
-      <c r="G44" s="0">
+      <c r="G44">
         <v>847.66793435770217</v>
       </c>
-      <c r="H44" s="0">
+      <c r="H44">
         <v>1113.5647058823529</v>
       </c>
-      <c r="I44" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J44" s="0">
+      <c r="I44">
+        <v>4095</v>
+      </c>
+      <c r="J44">
         <v>2621.4882352941177</v>
       </c>
-      <c r="K44" s="0">
+      <c r="K44">
         <v>1410.0564705882352</v>
       </c>
-      <c r="L44" s="0">
+      <c r="L44">
         <v>1770.1411764705881</v>
       </c>
-      <c r="M44" s="0">
+      <c r="M44">
         <v>2621.4882352941177</v>
       </c>
-      <c r="N44" s="0">
+      <c r="N44">
         <v>3244.3411764705888</v>
       </c>
-      <c r="O44" s="0">
+      <c r="O44">
         <v>3662.2376470588233</v>
       </c>
-      <c r="P44" s="0">
+      <c r="P44">
         <v>3777.5858823529411</v>
       </c>
-      <c r="Q44" s="0">
-        <v>-0.071363119488350973</v>
-      </c>
-      <c r="R44" s="0">
+      <c r="Q44">
+        <v>-7.1363119488350973E-2</v>
+      </c>
+      <c r="R44">
         <v>1.7708988206984007</v>
       </c>
-      <c r="S44" s="0">
+      <c r="S44">
         <v>3.5565794676220297</v>
       </c>
-      <c r="T44" s="0">
+      <c r="T44">
         <v>0</v>
       </c>
-      <c r="U44" s="0">
+      <c r="U44">
         <v>0.36956521739130432</v>
       </c>
-      <c r="V44" s="0">
+      <c r="V44">
         <v>-0.1917368800324839</v>
       </c>
-      <c r="W44" s="0">
+      <c r="W44">
         <v>346.15002949262578</v>
       </c>
-      <c r="X44" s="0">
+      <c r="X44">
         <v>709.9902364467174</v>
       </c>
-      <c r="Y44" s="0">
+      <c r="Y44">
         <v>371.84323692799478</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>535</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>540</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>83</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>88</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45">
         <v>3245.2468989958652</v>
       </c>
-      <c r="G45" s="0">
+      <c r="G45">
         <v>598.97945945319941</v>
       </c>
-      <c r="H45" s="0">
+      <c r="H45">
         <v>1959.2144122858831</v>
       </c>
-      <c r="I45" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J45" s="0">
+      <c r="I45">
+        <v>4095</v>
+      </c>
+      <c r="J45">
         <v>3364.5274660366217</v>
       </c>
-      <c r="K45" s="0">
+      <c r="K45">
         <v>2276.0750147666863</v>
       </c>
-      <c r="L45" s="0">
+      <c r="L45">
         <v>2845.6984642646194</v>
       </c>
-      <c r="M45" s="0">
+      <c r="M45">
         <v>3364.5274660366217</v>
       </c>
-      <c r="N45" s="0">
+      <c r="N45">
         <v>3812.0023626698166</v>
       </c>
-      <c r="O45" s="0">
+      <c r="O45">
         <v>3937.7790903721207</v>
       </c>
-      <c r="P45" s="0">
+      <c r="P45">
         <v>4051.4619019492025</v>
       </c>
-      <c r="Q45" s="0">
+      <c r="Q45">
         <v>-0.47941956991807888</v>
       </c>
-      <c r="R45" s="0">
+      <c r="R45">
         <v>2.3476099557231214</v>
       </c>
-      <c r="S45" s="0">
+      <c r="S45">
         <v>2.9270714049557149</v>
       </c>
-      <c r="T45" s="0">
+      <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45" s="0">
+      <c r="U45">
         <v>0.68571428571428572</v>
       </c>
-      <c r="V45" s="0">
+      <c r="V45">
         <v>-0.10587333380934316</v>
       </c>
-      <c r="W45" s="0">
+      <c r="W45">
         <v>348.0131823219005</v>
       </c>
-      <c r="X45" s="0">
+      <c r="X45">
         <v>527.08746700428514</v>
       </c>
-      <c r="Y45" s="0">
+      <c r="Y45">
         <v>247.18424222695029</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>490</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>532</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>222</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>251</v>
       </c>
-      <c r="F46" s="0">
+      <c r="F46">
         <v>2333.8115070608997</v>
       </c>
-      <c r="G46" s="0">
+      <c r="G46">
         <v>585.42395370881536</v>
       </c>
-      <c r="H46" s="0">
+      <c r="H46">
         <v>1433.6079545454547</v>
       </c>
-      <c r="I46" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J46" s="0">
+      <c r="I46">
+        <v>4095</v>
+      </c>
+      <c r="J46">
         <v>2294.4886363636365</v>
       </c>
-      <c r="K46" s="0">
+      <c r="K46">
         <v>1607.2159090909092</v>
       </c>
-      <c r="L46" s="0">
+      <c r="L46">
         <v>1831.3849431818182</v>
       </c>
-      <c r="M46" s="0">
+      <c r="M46">
         <v>2294.4886363636365</v>
       </c>
-      <c r="N46" s="0">
+      <c r="N46">
         <v>2731.193181818182</v>
       </c>
-      <c r="O46" s="0">
+      <c r="O46">
         <v>3135.3238636363644</v>
       </c>
-      <c r="P46" s="0">
+      <c r="P46">
         <v>3413.186079545454</v>
       </c>
-      <c r="Q46" s="0">
+      <c r="Q46">
         <v>0.46214643599199962</v>
       </c>
-      <c r="R46" s="0">
+      <c r="R46">
         <v>2.4779132526968848</v>
       </c>
-      <c r="S46" s="0">
+      <c r="S46">
         <v>3.0724873078885078</v>
       </c>
-      <c r="T46" s="0">
+      <c r="T46">
         <v>0</v>
       </c>
-      <c r="U46" s="0">
+      <c r="U46">
         <v>0.13592233009708737</v>
       </c>
-      <c r="V46" s="0">
+      <c r="V46">
         <v>-0.14252484978963431</v>
       </c>
-      <c r="W46" s="0">
+      <c r="W46">
         <v>96.832727209084894</v>
       </c>
-      <c r="X46" s="0">
+      <c r="X46">
         <v>181.01866751918269</v>
       </c>
-      <c r="Y46" s="0">
+      <c r="Y46">
         <v>108.98565732746967</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>135</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>140</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47">
         <v>43</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>48</v>
       </c>
-      <c r="F47" s="0">
+      <c r="F47">
         <v>2820.5838668373872</v>
       </c>
-      <c r="G47" s="0">
+      <c r="G47">
         <v>537.33771414675289</v>
       </c>
-      <c r="H47" s="0">
+      <c r="H47">
         <v>2118.2842509603074</v>
       </c>
-      <c r="I47" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J47" s="0">
+      <c r="I47">
+        <v>4095</v>
+      </c>
+      <c r="J47">
         <v>2739.6126760563379</v>
       </c>
-      <c r="K47" s="0">
+      <c r="K47">
         <v>2175.9603072983355</v>
       </c>
-      <c r="L47" s="0">
+      <c r="L47">
         <v>2456.4756722151087</v>
       </c>
-      <c r="M47" s="0">
+      <c r="M47">
         <v>2739.6126760563379</v>
       </c>
-      <c r="N47" s="0">
+      <c r="N47">
         <v>3197.088668373879</v>
       </c>
-      <c r="O47" s="0">
+      <c r="O47">
         <v>3625.7266325224068</v>
       </c>
-      <c r="P47" s="0">
+      <c r="P47">
         <v>3877.4039692701663</v>
       </c>
-      <c r="Q47" s="0">
+      <c r="Q47">
         <v>0.67580871974431345</v>
       </c>
-      <c r="R47" s="0">
+      <c r="R47">
         <v>2.6502569862803034</v>
       </c>
-      <c r="S47" s="0">
+      <c r="S47">
         <v>2.9007115883735368</v>
       </c>
-      <c r="T47" s="0">
+      <c r="T47">
         <v>0</v>
       </c>
-      <c r="U47" s="0">
+      <c r="U47">
         <v>0.2857142857142857</v>
       </c>
-      <c r="V47" s="0">
+      <c r="V47">
         <v>-0.10780564615903709</v>
       </c>
-      <c r="W47" s="0">
+      <c r="W47">
         <v>352.45564281665753</v>
       </c>
-      <c r="X47" s="0">
+      <c r="X47">
         <v>495.58591666083504</v>
       </c>
-      <c r="Y47" s="0">
+      <c r="Y47">
         <v>179.93200649419242</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>415</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>581</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>91</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>214</v>
       </c>
-      <c r="F48" s="0">
+      <c r="F48">
         <v>2986.5570024771164</v>
       </c>
-      <c r="G48" s="0">
+      <c r="G48">
         <v>952.9048129798108</v>
       </c>
-      <c r="H48" s="0">
+      <c r="H48">
         <v>1082.1897459372854</v>
       </c>
-      <c r="I48" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J48" s="0">
+      <c r="I48">
+        <v>4095</v>
+      </c>
+      <c r="J48">
         <v>3173.5859464408331</v>
       </c>
-      <c r="K48" s="0">
+      <c r="K48">
         <v>1433.4218356603342</v>
       </c>
-      <c r="L48" s="0">
+      <c r="L48">
         <v>2246.7981231403069</v>
       </c>
-      <c r="M48" s="0">
+      <c r="M48">
         <v>3173.5859464408331</v>
       </c>
-      <c r="N48" s="0">
+      <c r="N48">
         <v>3858.5541313801787</v>
       </c>
-      <c r="O48" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P48" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q48" s="0">
+      <c r="O48">
+        <v>4095</v>
+      </c>
+      <c r="P48">
+        <v>4095</v>
+      </c>
+      <c r="Q48">
         <v>-0.50527954232962469</v>
       </c>
-      <c r="R48" s="0">
+      <c r="R48">
         <v>1.9919428215282029</v>
       </c>
-      <c r="S48" s="0">
+      <c r="S48">
         <v>3.4947978852833526</v>
       </c>
-      <c r="T48" s="0">
+      <c r="T48">
         <v>0</v>
       </c>
-      <c r="U48" s="0">
+      <c r="U48">
         <v>0.55897610921501706</v>
       </c>
-      <c r="V48" s="0">
+      <c r="V48">
         <v>-0.18030179135953039</v>
       </c>
-      <c r="W48" s="0">
+      <c r="W48">
         <v>57.178687813261774</v>
       </c>
-      <c r="X48" s="0">
+      <c r="X48">
         <v>95.302814153747192</v>
       </c>
-      <c r="Y48" s="0">
+      <c r="Y48">
         <v>111.22538486911178</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>446</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>576</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>49</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>143</v>
       </c>
-      <c r="F49" s="0">
+      <c r="F49">
         <v>3160.4725831174869</v>
       </c>
-      <c r="G49" s="0">
+      <c r="G49">
         <v>896.34630092472514</v>
       </c>
-      <c r="H49" s="0">
+      <c r="H49">
         <v>1187.7905699244679</v>
       </c>
-      <c r="I49" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J49" s="0">
+      <c r="I49">
+        <v>4095</v>
+      </c>
+      <c r="J49">
         <v>3345.6090638590067</v>
       </c>
-      <c r="K49" s="0">
+      <c r="K49">
         <v>1779.1489356832226</v>
       </c>
-      <c r="L49" s="0">
+      <c r="L49">
         <v>2437.7544060425726</v>
       </c>
-      <c r="M49" s="0">
+      <c r="M49">
         <v>3345.6090638590067</v>
       </c>
-      <c r="N49" s="0">
-        <v>4095</v>
-      </c>
-      <c r="O49" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P49" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q49" s="0">
+      <c r="N49">
+        <v>4095</v>
+      </c>
+      <c r="O49">
+        <v>4095</v>
+      </c>
+      <c r="P49">
+        <v>4095</v>
+      </c>
+      <c r="Q49">
         <v>-0.53964778698232962</v>
       </c>
-      <c r="R49" s="0">
+      <c r="R49">
         <v>1.9871602485117086</v>
       </c>
-      <c r="S49" s="0">
+      <c r="S49">
         <v>3.2471386485959695</v>
       </c>
-      <c r="T49" s="0">
+      <c r="T49">
         <v>0</v>
       </c>
-      <c r="U49" s="0">
+      <c r="U49">
         <v>0.59971451876019577</v>
       </c>
-      <c r="V49" s="0">
+      <c r="V49">
         <v>-0.15856881260024447</v>
       </c>
-      <c r="W49" s="0">
+      <c r="W49">
         <v>72.960432192848742</v>
       </c>
-      <c r="X49" s="0">
+      <c r="X49">
         <v>111.17639623342896</v>
       </c>
-      <c r="Y49" s="0">
+      <c r="Y49">
         <v>116.87255762378977</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>396</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>600</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>24</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50">
         <v>163</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50">
         <v>2692.2955738796977</v>
       </c>
-      <c r="G50" s="0">
+      <c r="G50">
         <v>1016.6429310501504</v>
       </c>
-      <c r="H50" s="0">
+      <c r="H50">
         <v>819.62485694666975</v>
       </c>
-      <c r="I50" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J50" s="0">
+      <c r="I50">
+        <v>4095</v>
+      </c>
+      <c r="J50">
         <v>2794.4852368963152</v>
       </c>
-      <c r="K50" s="0">
+      <c r="K50">
         <v>1194.101625085832</v>
       </c>
-      <c r="L50" s="0">
+      <c r="L50">
         <v>1831.5806820782789</v>
       </c>
-      <c r="M50" s="0">
+      <c r="M50">
         <v>2794.4852368963152</v>
       </c>
-      <c r="N50" s="0">
+      <c r="N50">
         <v>3562.934309910735</v>
       </c>
-      <c r="O50" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P50" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q50" s="0">
+      <c r="O50">
+        <v>4095</v>
+      </c>
+      <c r="P50">
+        <v>4095</v>
+      </c>
+      <c r="Q50">
         <v>-0.18955704013780242</v>
       </c>
-      <c r="R50" s="0">
+      <c r="R50">
         <v>1.8152617193371419</v>
       </c>
-      <c r="S50" s="0">
+      <c r="S50">
         <v>3.7048093788750429</v>
       </c>
-      <c r="T50" s="0">
-        <v>0.048701136193002655</v>
-      </c>
-      <c r="U50" s="0">
+      <c r="T50">
+        <v>4.8701136193002655E-2</v>
+      </c>
+      <c r="U50">
         <v>0.43355523299464438</v>
       </c>
-      <c r="V50" s="0">
+      <c r="V50">
         <v>-0.21712074695440098</v>
       </c>
-      <c r="W50" s="0">
+      <c r="W50">
         <v>48.149758682865205</v>
       </c>
-      <c r="X50" s="0">
+      <c r="X50">
         <v>81.060848713514034</v>
       </c>
-      <c r="Y50" s="0">
+      <c r="Y50">
         <v>99.423353295929346</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>402</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>598</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51">
         <v>135</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51">
         <v>245</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51">
         <v>2865.7753194364145</v>
       </c>
-      <c r="G51" s="0">
+      <c r="G51">
         <v>942.32541335816188</v>
       </c>
-      <c r="H51" s="0">
+      <c r="H51">
         <v>1033.4509040970474</v>
       </c>
-      <c r="I51" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J51" s="0">
+      <c r="I51">
+        <v>4095</v>
+      </c>
+      <c r="J51">
         <v>2933.8283360036621</v>
       </c>
-      <c r="K51" s="0">
+      <c r="K51">
         <v>1459.1659418631266</v>
       </c>
-      <c r="L51" s="0">
+      <c r="L51">
         <v>2108.1423666742958</v>
       </c>
-      <c r="M51" s="0">
+      <c r="M51">
         <v>2933.8283360036621</v>
       </c>
-      <c r="N51" s="0">
+      <c r="N51">
         <v>3720.8356603341726</v>
       </c>
-      <c r="O51" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P51" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q51" s="0">
+      <c r="O51">
+        <v>4095</v>
+      </c>
+      <c r="P51">
+        <v>4095</v>
+      </c>
+      <c r="Q51">
         <v>-0.26704074328381577</v>
       </c>
-      <c r="R51" s="0">
+      <c r="R51">
         <v>1.8566680033370713</v>
       </c>
-      <c r="S51" s="0">
+      <c r="S51">
         <v>3.5836965817114845</v>
       </c>
-      <c r="T51" s="0">
+      <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51" s="0">
+      <c r="U51">
         <v>0.47996661101836396</v>
       </c>
-      <c r="V51" s="0">
+      <c r="V51">
         <v>-0.1884981062818285</v>
       </c>
-      <c r="W51" s="0">
+      <c r="W51">
         <v>64.458727551415322</v>
       </c>
-      <c r="X51" s="0">
+      <c r="X51">
         <v>98.643515720321957</v>
       </c>
-      <c r="Y51" s="0">
+      <c r="Y51">
         <v>120.89093597751591</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>415</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>607</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>66</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>196</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52">
         <v>2846.6347005694042</v>
       </c>
-      <c r="G52" s="0">
+      <c r="G52">
         <v>980.29981833651902</v>
       </c>
-      <c r="H52" s="0">
+      <c r="H52">
         <v>932.34905012588695</v>
       </c>
-      <c r="I52" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J52" s="0">
+      <c r="I52">
+        <v>4095</v>
+      </c>
+      <c r="J52">
         <v>2991.502632181277</v>
       </c>
-      <c r="K52" s="0">
+      <c r="K52">
         <v>1386.3701075761044</v>
       </c>
-      <c r="L52" s="0">
+      <c r="L52">
         <v>2005.6033417257952</v>
       </c>
-      <c r="M52" s="0">
+      <c r="M52">
         <v>2991.502632181277</v>
       </c>
-      <c r="N52" s="0">
+      <c r="N52">
         <v>3726.0219729915311</v>
       </c>
-      <c r="O52" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P52" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q52" s="0">
+      <c r="O52">
+        <v>4095</v>
+      </c>
+      <c r="P52">
+        <v>4095</v>
+      </c>
+      <c r="Q52">
         <v>-0.31943834769206486</v>
       </c>
-      <c r="R52" s="0">
+      <c r="R52">
         <v>1.8287858387431359</v>
       </c>
-      <c r="S52" s="0">
+      <c r="S52">
         <v>3.6037178170041648</v>
       </c>
-      <c r="T52" s="0">
-        <v>0.014876407036597093</v>
-      </c>
-      <c r="U52" s="0">
+      <c r="T52">
+        <v>1.4876407036597093E-2</v>
+      </c>
+      <c r="U52">
         <v>0.49725663216245264</v>
       </c>
-      <c r="V52" s="0">
+      <c r="V52">
         <v>-0.19696326055248181</v>
       </c>
-      <c r="W52" s="0">
+      <c r="W52">
         <v>52.863680533716476</v>
       </c>
-      <c r="X52" s="0">
+      <c r="X52">
         <v>88.103223359189144</v>
       </c>
-      <c r="Y52" s="0">
+      <c r="Y52">
         <v>95.293891385207303</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>159</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>163</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>187</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>191</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53">
         <v>2709.2468652037614</v>
       </c>
-      <c r="G53" s="0">
+      <c r="G53">
         <v>70.730973637921281</v>
       </c>
-      <c r="H53" s="0">
+      <c r="H53">
         <v>2583.4443573667709</v>
       </c>
-      <c r="I53" s="0">
+      <c r="I53">
         <v>2907.5783699059562</v>
       </c>
-      <c r="J53" s="0">
+      <c r="J53">
         <v>2698.9772727272725</v>
       </c>
-      <c r="K53" s="0">
+      <c r="K53">
         <v>2621.9553291536049</v>
       </c>
-      <c r="L53" s="0">
+      <c r="L53">
         <v>2662.0709247648902</v>
       </c>
-      <c r="M53" s="0">
+      <c r="M53">
         <v>2698.9772727272725</v>
       </c>
-      <c r="N53" s="0">
+      <c r="N53">
         <v>2756.7437304075233</v>
       </c>
-      <c r="O53" s="0">
+      <c r="O53">
         <v>2788.8362068965516</v>
       </c>
-      <c r="P53" s="0">
+      <c r="P53">
         <v>2832.9633620689651</v>
       </c>
-      <c r="Q53" s="0">
+      <c r="Q53">
         <v>0.68730628571377628</v>
       </c>
-      <c r="R53" s="0">
+      <c r="R53">
         <v>3.7525344244401815</v>
       </c>
-      <c r="S53" s="0">
+      <c r="S53">
         <v>0.99884553599520176</v>
       </c>
-      <c r="T53" s="0">
+      <c r="T53">
         <v>0</v>
       </c>
-      <c r="U53" s="0">
+      <c r="U53">
         <v>0</v>
       </c>
-      <c r="V53" s="0">
-        <v>-0.014648977335544267</v>
-      </c>
-      <c r="W53" s="0">
+      <c r="V53">
+        <v>-1.4648977335544267E-2</v>
+      </c>
+      <c r="W53">
         <v>59.14973593969966</v>
       </c>
-      <c r="X53" s="0">
+      <c r="X53">
         <v>75.936393252848589</v>
       </c>
-      <c r="Y53" s="0">
+      <c r="Y53">
         <v>44.916560882639907</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>175</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>183</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>155</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>161</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54">
         <v>3230.1547523961658</v>
       </c>
-      <c r="G54" s="0">
+      <c r="G54">
         <v>430.10832496500751</v>
       </c>
-      <c r="H54" s="0">
+      <c r="H54">
         <v>2619.8841853035142</v>
       </c>
-      <c r="I54" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J54" s="0">
+      <c r="I54">
+        <v>4095</v>
+      </c>
+      <c r="J54">
         <v>3153.0191693290735</v>
       </c>
-      <c r="K54" s="0">
+      <c r="K54">
         <v>2682.0287539936098</v>
       </c>
-      <c r="L54" s="0">
+      <c r="L54">
         <v>2881.5455271565493</v>
       </c>
-      <c r="M54" s="0">
+      <c r="M54">
         <v>3153.0191693290735</v>
       </c>
-      <c r="N54" s="0">
+      <c r="N54">
         <v>3540.6050319488818</v>
       </c>
-      <c r="O54" s="0">
+      <c r="O54">
         <v>3867.6817092651759</v>
       </c>
-      <c r="P54" s="0">
+      <c r="P54">
         <v>3993.6062300319486</v>
       </c>
-      <c r="Q54" s="0">
+      <c r="Q54">
         <v>0.39111825060247385</v>
       </c>
-      <c r="R54" s="0">
+      <c r="R54">
         <v>1.9989166869093615</v>
       </c>
-      <c r="S54" s="0">
+      <c r="S54">
         <v>2.6547504245755951</v>
       </c>
-      <c r="T54" s="0">
+      <c r="T54">
         <v>0</v>
       </c>
-      <c r="U54" s="0">
+      <c r="U54">
         <v>0.6166666666666667</v>
       </c>
-      <c r="V54" s="0">
-        <v>-0.076555364704973927</v>
-      </c>
-      <c r="W54" s="0">
+      <c r="V54">
+        <v>-7.6555364704973927E-2</v>
+      </c>
+      <c r="W54">
         <v>239.75803951502542</v>
       </c>
-      <c r="X54" s="0">
+      <c r="X54">
         <v>381.27449012749292</v>
       </c>
-      <c r="Y54" s="0">
+      <c r="Y54">
         <v>119.77351879285268</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>447</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>596</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>16</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>152</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55">
         <v>2910.2275948895731</v>
       </c>
-      <c r="G55" s="0">
+      <c r="G55">
         <v>993.14011216665995</v>
       </c>
-      <c r="H55" s="0">
+      <c r="H55">
         <v>1074.7539482719158</v>
       </c>
-      <c r="I55" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J55" s="0">
+      <c r="I55">
+        <v>4095</v>
+      </c>
+      <c r="J55">
         <v>3024.3076218814376</v>
       </c>
-      <c r="K55" s="0">
+      <c r="K55">
         <v>1435.6713206683451</v>
       </c>
-      <c r="L55" s="0">
+      <c r="L55">
         <v>2036.7837033646144</v>
       </c>
-      <c r="M55" s="0">
+      <c r="M55">
         <v>3024.3076218814376</v>
       </c>
-      <c r="N55" s="0">
+      <c r="N55">
         <v>3921.9146257724883</v>
       </c>
-      <c r="O55" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P55" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q55" s="0">
+      <c r="O55">
+        <v>4095</v>
+      </c>
+      <c r="P55">
+        <v>4095</v>
+      </c>
+      <c r="Q55">
         <v>-0.29403380521143269</v>
       </c>
-      <c r="R55" s="0">
+      <c r="R55">
         <v>1.7015128468238385</v>
       </c>
-      <c r="S55" s="0">
+      <c r="S55">
         <v>3.5063253174913074</v>
       </c>
-      <c r="T55" s="0">
+      <c r="T55">
         <v>0</v>
       </c>
-      <c r="U55" s="0">
+      <c r="U55">
         <v>0.50625215889464592</v>
       </c>
-      <c r="V55" s="0">
+      <c r="V55">
         <v>-0.19450861706109435</v>
       </c>
-      <c r="W55" s="0">
+      <c r="W55">
         <v>58.283833419271041</v>
       </c>
-      <c r="X55" s="0">
+      <c r="X55">
         <v>100.44960386048724</v>
       </c>
-      <c r="Y55" s="0">
+      <c r="Y55">
         <v>108.49565210414133</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>400</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>601</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>108</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>241</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56">
         <v>2728.5408343943768</v>
       </c>
-      <c r="G56" s="0">
+      <c r="G56">
         <v>976.95691101903253</v>
       </c>
-      <c r="H56" s="0">
+      <c r="H56">
         <v>921.91393911650266</v>
       </c>
-      <c r="I56" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J56" s="0">
+      <c r="I56">
+        <v>4095</v>
+      </c>
+      <c r="J56">
         <v>2761.0553902494853</v>
       </c>
-      <c r="K56" s="0">
+      <c r="K56">
         <v>1336.256580453193</v>
       </c>
-      <c r="L56" s="0">
+      <c r="L56">
         <v>1887.5053788052185</v>
       </c>
-      <c r="M56" s="0">
+      <c r="M56">
         <v>2761.0553902494853</v>
       </c>
-      <c r="N56" s="0">
+      <c r="N56">
         <v>3577.0560769054705</v>
       </c>
-      <c r="O56" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P56" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q56" s="0">
+      <c r="O56">
+        <v>4095</v>
+      </c>
+      <c r="P56">
+        <v>4095</v>
+      </c>
+      <c r="Q56">
         <v>-0.13279543386623324</v>
       </c>
-      <c r="R56" s="0">
+      <c r="R56">
         <v>1.8268340045327625</v>
       </c>
-      <c r="S56" s="0">
+      <c r="S56">
         <v>3.6329133536187088</v>
       </c>
-      <c r="T56" s="0">
-        <v>0.026025767061623635</v>
-      </c>
-      <c r="U56" s="0">
+      <c r="T56">
+        <v>2.6025767061623635E-2</v>
+      </c>
+      <c r="U56">
         <v>0.4242769183008227</v>
       </c>
-      <c r="V56" s="0">
+      <c r="V56">
         <v>-0.20605272130094154</v>
       </c>
-      <c r="W56" s="0">
+      <c r="W56">
         <v>51.550990030727682</v>
       </c>
-      <c r="X56" s="0">
+      <c r="X56">
         <v>83.86281959680872</v>
       </c>
-      <c r="Y56" s="0">
+      <c r="Y56">
         <v>83.452799555084638</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>417</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>580</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>92</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57">
         <v>180</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57">
         <v>3392.103851596522</v>
       </c>
-      <c r="G57" s="0">
+      <c r="G57">
         <v>578.84123951247693</v>
       </c>
-      <c r="H57" s="0">
+      <c r="H57">
         <v>2378.5804531929507</v>
       </c>
-      <c r="I57" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J57" s="0">
+      <c r="I57">
+        <v>4095</v>
+      </c>
+      <c r="J57">
         <v>3370.4158846417945</v>
       </c>
-      <c r="K57" s="0">
+      <c r="K57">
         <v>2592.4065003433279</v>
       </c>
-      <c r="L57" s="0">
+      <c r="L57">
         <v>2874.5294117647059</v>
       </c>
-      <c r="M57" s="0">
+      <c r="M57">
         <v>3370.4158846417945</v>
       </c>
-      <c r="N57" s="0">
-        <v>4095</v>
-      </c>
-      <c r="O57" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P57" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q57" s="0">
+      <c r="N57">
+        <v>4095</v>
+      </c>
+      <c r="O57">
+        <v>4095</v>
+      </c>
+      <c r="P57">
+        <v>4095</v>
+      </c>
+      <c r="Q57">
         <v>-0.10299179518290617</v>
       </c>
-      <c r="R57" s="0">
+      <c r="R57">
         <v>1.5516048768878863</v>
       </c>
-      <c r="S57" s="0">
+      <c r="S57">
         <v>2.7741272709939744</v>
       </c>
-      <c r="T57" s="0">
+      <c r="T57">
         <v>0</v>
       </c>
-      <c r="U57" s="0">
+      <c r="U57">
         <v>0.68034464189553046</v>
       </c>
-      <c r="V57" s="0">
-        <v>-0.097184918805074183</v>
-      </c>
-      <c r="W57" s="0">
+      <c r="V57">
+        <v>-9.7184918805074183E-2</v>
+      </c>
+      <c r="W57">
         <v>90.442419878857493</v>
       </c>
-      <c r="X57" s="0">
+      <c r="X57">
         <v>162.93146613671829</v>
       </c>
-      <c r="Y57" s="0">
+      <c r="Y57">
         <v>152.90105989258262</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>431</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>445</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>164</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>183</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58">
         <v>2059.9108520038694</v>
       </c>
-      <c r="G58" s="0">
+      <c r="G58">
         <v>679.97784016585774</v>
       </c>
-      <c r="H58" s="0">
+      <c r="H58">
         <v>1243.4021986353298</v>
       </c>
-      <c r="I58" s="0">
+      <c r="I58">
         <v>3795.4037149355572</v>
       </c>
-      <c r="J58" s="0">
+      <c r="J58">
         <v>1859.6702047005306</v>
       </c>
-      <c r="K58" s="0">
+      <c r="K58">
         <v>1352.0640636846094</v>
       </c>
-      <c r="L58" s="0">
+      <c r="L58">
         <v>1487.5033169067474</v>
       </c>
-      <c r="M58" s="0">
+      <c r="M58">
         <v>1859.6702047005306</v>
       </c>
-      <c r="N58" s="0">
+      <c r="N58">
         <v>2548.8968915845335</v>
       </c>
-      <c r="O58" s="0">
+      <c r="O58">
         <v>3141.5697498104628</v>
       </c>
-      <c r="P58" s="0">
+      <c r="P58">
         <v>3504.1899166034873</v>
       </c>
-      <c r="Q58" s="0">
+      <c r="Q58">
         <v>0.87426114324193493</v>
       </c>
-      <c r="R58" s="0">
+      <c r="R58">
         <v>2.8023628725355336</v>
       </c>
-      <c r="S58" s="0">
+      <c r="S58">
         <v>3.1175652568226706</v>
       </c>
-      <c r="T58" s="0">
+      <c r="T58">
         <v>0</v>
       </c>
-      <c r="U58" s="0">
+      <c r="U58">
         <v>0.10837438423645321</v>
       </c>
-      <c r="V58" s="0">
+      <c r="V58">
         <v>-0.18198661539626393</v>
       </c>
-      <c r="W58" s="0">
+      <c r="W58">
         <v>152.60900338771279</v>
       </c>
-      <c r="X58" s="0">
+      <c r="X58">
         <v>383.34542110617645</v>
       </c>
-      <c r="Y58" s="0">
+      <c r="Y58">
         <v>255.49904304548008</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>429</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>596</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>133</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>238</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59">
         <v>2970.4342716038445</v>
       </c>
-      <c r="G59" s="0">
+      <c r="G59">
         <v>912.89746912698604</v>
       </c>
-      <c r="H59" s="0">
+      <c r="H59">
         <v>1045.9480430304416</v>
       </c>
-      <c r="I59" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J59" s="0">
+      <c r="I59">
+        <v>4095</v>
+      </c>
+      <c r="J59">
         <v>3062.1114671549553</v>
       </c>
-      <c r="K59" s="0">
+      <c r="K59">
         <v>1608.7566948958572</v>
       </c>
-      <c r="L59" s="0">
+      <c r="L59">
         <v>2260.3575188830396</v>
       </c>
-      <c r="M59" s="0">
+      <c r="M59">
         <v>3062.1114671549553</v>
       </c>
-      <c r="N59" s="0">
+      <c r="N59">
         <v>3844.3073929961088</v>
       </c>
-      <c r="O59" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P59" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q59" s="0">
+      <c r="O59">
+        <v>4095</v>
+      </c>
+      <c r="P59">
+        <v>4095</v>
+      </c>
+      <c r="Q59">
         <v>-0.34841026895467303</v>
       </c>
-      <c r="R59" s="0">
+      <c r="R59">
         <v>1.9535480573127981</v>
       </c>
-      <c r="S59" s="0">
+      <c r="S59">
         <v>3.49423412815367</v>
       </c>
-      <c r="T59" s="0">
+      <c r="T59">
         <v>0</v>
       </c>
-      <c r="U59" s="0">
+      <c r="U59">
         <v>0.52162887828162297</v>
       </c>
-      <c r="V59" s="0">
+      <c r="V59">
         <v>-0.17528576548208186</v>
       </c>
-      <c r="W59" s="0">
+      <c r="W59">
         <v>59.014380045935937</v>
       </c>
-      <c r="X59" s="0">
+      <c r="X59">
         <v>93.161377155312607</v>
       </c>
-      <c r="Y59" s="0">
+      <c r="Y59">
         <v>111.78096274380526</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>408</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>587</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>21</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>149</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60">
         <v>2850.6390150877178</v>
       </c>
-      <c r="G60" s="0">
+      <c r="G60">
         <v>919.65564162019825</v>
       </c>
-      <c r="H60" s="0">
+      <c r="H60">
         <v>1032.138704509041</v>
       </c>
-      <c r="I60" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J60" s="0">
+      <c r="I60">
+        <v>4095</v>
+      </c>
+      <c r="J60">
         <v>2856.7209887846188</v>
       </c>
-      <c r="K60" s="0">
+      <c r="K60">
         <v>1476.6619363698787</v>
       </c>
-      <c r="L60" s="0">
+      <c r="L60">
         <v>2155.7564660105286</v>
       </c>
-      <c r="M60" s="0">
+      <c r="M60">
         <v>2856.7209887846188</v>
       </c>
-      <c r="N60" s="0">
+      <c r="N60">
         <v>3677.5330739299611</v>
       </c>
-      <c r="O60" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P60" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q60" s="0">
+      <c r="O60">
+        <v>4095</v>
+      </c>
+      <c r="P60">
+        <v>4095</v>
+      </c>
+      <c r="Q60">
         <v>-0.22606948086610998</v>
       </c>
-      <c r="R60" s="0">
+      <c r="R60">
         <v>1.9452489709170981</v>
       </c>
-      <c r="S60" s="0">
+      <c r="S60">
         <v>3.5678223109382849</v>
       </c>
-      <c r="T60" s="0">
+      <c r="T60">
         <v>0</v>
       </c>
-      <c r="U60" s="0">
+      <c r="U60">
         <v>0.44741439552760309</v>
       </c>
-      <c r="V60" s="0">
+      <c r="V60">
         <v>-0.18495427552087085</v>
       </c>
-      <c r="W60" s="0">
+      <c r="W60">
         <v>66.652354415470626</v>
       </c>
-      <c r="X60" s="0">
+      <c r="X60">
         <v>107.6323193545003</v>
       </c>
-      <c r="Y60" s="0">
+      <c r="Y60">
         <v>111.57009115061378</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>412</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61">
         <v>577</v>
       </c>
-      <c r="D61" s="0">
+      <c r="D61">
         <v>59</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61">
         <v>177</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61">
         <v>2945.8820883982448</v>
       </c>
-      <c r="G61" s="0">
+      <c r="G61">
         <v>931.07440237604874</v>
       </c>
-      <c r="H61" s="0">
+      <c r="H61">
         <v>1006.1446555275807</v>
       </c>
-      <c r="I61" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J61" s="0">
+      <c r="I61">
+        <v>4095</v>
+      </c>
+      <c r="J61">
         <v>3068.7349507896542</v>
       </c>
-      <c r="K61" s="0">
+      <c r="K61">
         <v>1553.8317692835888</v>
       </c>
-      <c r="L61" s="0">
+      <c r="L61">
         <v>2188.4989700160218</v>
       </c>
-      <c r="M61" s="0">
+      <c r="M61">
         <v>3068.7349507896542</v>
       </c>
-      <c r="N61" s="0">
+      <c r="N61">
         <v>3822.4373998626688</v>
       </c>
-      <c r="O61" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P61" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q61" s="0">
+      <c r="O61">
+        <v>4095</v>
+      </c>
+      <c r="P61">
+        <v>4095</v>
+      </c>
+      <c r="Q61">
         <v>-0.36671516005894395</v>
       </c>
-      <c r="R61" s="0">
+      <c r="R61">
         <v>1.9149004500307916</v>
       </c>
-      <c r="S61" s="0">
+      <c r="S61">
         <v>3.5509860131807898</v>
       </c>
-      <c r="T61" s="0">
+      <c r="T61">
         <v>0</v>
       </c>
-      <c r="U61" s="0">
+      <c r="U61">
         <v>0.51919216497353848</v>
       </c>
-      <c r="V61" s="0">
+      <c r="V61">
         <v>-0.18030893713416951</v>
       </c>
-      <c r="W61" s="0">
+      <c r="W61">
         <v>58.126027973748997</v>
       </c>
-      <c r="X61" s="0">
+      <c r="X61">
         <v>81.547330263408014</v>
       </c>
-      <c r="Y61" s="0">
+      <c r="Y61">
         <v>84.803722026587522</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>401</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62">
         <v>575</v>
       </c>
-      <c r="D62" s="0">
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62">
         <v>110</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62">
         <v>2510.5937269954775</v>
       </c>
-      <c r="G62" s="0">
+      <c r="G62">
         <v>955.68481509155094</v>
       </c>
-      <c r="H62" s="0">
+      <c r="H62">
         <v>902.10597390707255</v>
       </c>
-      <c r="I62" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J62" s="0">
+      <c r="I62">
+        <v>4095</v>
+      </c>
+      <c r="J62">
         <v>2475.4957656214233</v>
       </c>
-      <c r="K62" s="0">
+      <c r="K62">
         <v>1185.9159990844587</v>
       </c>
-      <c r="L62" s="0">
+      <c r="L62">
         <v>1699.4859235523004</v>
       </c>
-      <c r="M62" s="0">
+      <c r="M62">
         <v>2475.4957656214233</v>
       </c>
-      <c r="N62" s="0">
+      <c r="N62">
         <v>3303.2437628747998</v>
       </c>
-      <c r="O62" s="0">
+      <c r="O62">
         <v>3912.6542458228437</v>
       </c>
-      <c r="P62" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q62" s="0">
-        <v>0.071993283101549371</v>
-      </c>
-      <c r="R62" s="0">
+      <c r="P62">
+        <v>4095</v>
+      </c>
+      <c r="Q62">
+        <v>7.1993283101549371E-2</v>
+      </c>
+      <c r="R62">
         <v>1.8445653289765733</v>
       </c>
-      <c r="S62" s="0">
+      <c r="S62">
         <v>3.6901166077566909</v>
       </c>
-      <c r="T62" s="0">
-        <v>0.030110207294673313</v>
-      </c>
-      <c r="U62" s="0">
+      <c r="T62">
+        <v>3.0110207294673313E-2</v>
+      </c>
+      <c r="U62">
         <v>0.3390842298609289</v>
       </c>
-      <c r="V62" s="0">
+      <c r="V62">
         <v>-0.21960794160620556</v>
       </c>
-      <c r="W62" s="0">
+      <c r="W62">
         <v>70.670272491524244</v>
       </c>
-      <c r="X62" s="0">
+      <c r="X62">
         <v>104.06565335167919</v>
       </c>
-      <c r="Y62" s="0">
+      <c r="Y62">
         <v>106.00568928982024</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>140</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63">
         <v>152</v>
       </c>
-      <c r="D63" s="0">
+      <c r="D63">
         <v>119</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63">
         <v>129</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63">
         <v>1526.4006962650967</v>
       </c>
-      <c r="G63" s="0">
+      <c r="G63">
         <v>591.96124154708684</v>
       </c>
-      <c r="H63" s="0">
+      <c r="H63">
         <v>1078.0523917995442</v>
       </c>
-      <c r="I63" s="0">
+      <c r="I63">
         <v>4094.9999999999995</v>
       </c>
-      <c r="J63" s="0">
+      <c r="J63">
         <v>1269.2767653758542</v>
       </c>
-      <c r="K63" s="0">
+      <c r="K63">
         <v>1116.6970387243734</v>
       </c>
-      <c r="L63" s="0">
+      <c r="L63">
         <v>1170</v>
       </c>
-      <c r="M63" s="0">
+      <c r="M63">
         <v>1269.2767653758542</v>
       </c>
-      <c r="N63" s="0">
+      <c r="N63">
         <v>1635.0683371298403</v>
       </c>
-      <c r="O63" s="0">
+      <c r="O63">
         <v>2279.7676537585426</v>
       </c>
-      <c r="P63" s="0">
+      <c r="P63">
         <v>2701.3940774487455</v>
       </c>
-      <c r="Q63" s="0">
+      <c r="Q63">
         <v>2.2388713134637848</v>
       </c>
-      <c r="R63" s="0">
+      <c r="R63">
         <v>8.3828112247869182</v>
       </c>
-      <c r="S63" s="0">
+      <c r="S63">
         <v>2.4829070448660797</v>
       </c>
-      <c r="T63" s="0">
+      <c r="T63">
         <v>0</v>
       </c>
-      <c r="U63" s="0">
-        <v>0.028301886792452831</v>
-      </c>
-      <c r="V63" s="0">
+      <c r="U63">
+        <v>2.8301886792452831E-2</v>
+      </c>
+      <c r="V63">
         <v>-0.17903550818934066</v>
       </c>
-      <c r="W63" s="0">
+      <c r="W63">
         <v>161.84336005827586</v>
       </c>
-      <c r="X63" s="0">
+      <c r="X63">
         <v>337.52146523187002</v>
       </c>
-      <c r="Y63" s="0">
+      <c r="Y63">
         <v>471.38661710710142</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>410</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64">
         <v>572</v>
       </c>
-      <c r="D64" s="0">
+      <c r="D64">
         <v>21</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64">
         <v>146</v>
       </c>
-      <c r="F64" s="0">
+      <c r="F64">
         <v>2911.7122533826396</v>
       </c>
-      <c r="G64" s="0">
+      <c r="G64">
         <v>871.69853302649938</v>
       </c>
-      <c r="H64" s="0">
+      <c r="H64">
         <v>1119.4937056534675</v>
       </c>
-      <c r="I64" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J64" s="0">
+      <c r="I64">
+        <v>4095</v>
+      </c>
+      <c r="J64">
         <v>2934.9530785076677</v>
       </c>
-      <c r="K64" s="0">
+      <c r="K64">
         <v>1684.1144426642252</v>
       </c>
-      <c r="L64" s="0">
+      <c r="L64">
         <v>2223.61593041886</v>
       </c>
-      <c r="M64" s="0">
+      <c r="M64">
         <v>2934.9530785076677</v>
       </c>
-      <c r="N64" s="0">
+      <c r="N64">
         <v>3713.46234836347</v>
       </c>
-      <c r="O64" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P64" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q64" s="0">
+      <c r="O64">
+        <v>4095</v>
+      </c>
+      <c r="P64">
+        <v>4095</v>
+      </c>
+      <c r="Q64">
         <v>-0.17142789808651845</v>
       </c>
-      <c r="R64" s="0">
+      <c r="R64">
         <v>1.9152551213614486</v>
       </c>
-      <c r="S64" s="0">
+      <c r="S64">
         <v>3.4980270585902495</v>
       </c>
-      <c r="T64" s="0">
+      <c r="T64">
         <v>0</v>
       </c>
-      <c r="U64" s="0">
+      <c r="U64">
         <v>0.47640108675048964</v>
       </c>
-      <c r="V64" s="0">
+      <c r="V64">
         <v>-0.17183296511312984</v>
       </c>
-      <c r="W64" s="0">
+      <c r="W64">
         <v>65.413148433007635</v>
       </c>
-      <c r="X64" s="0">
+      <c r="X64">
         <v>99.258580804227847</v>
       </c>
-      <c r="Y64" s="0">
+      <c r="Y64">
         <v>104.06779069782624</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>454</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65">
         <v>593</v>
       </c>
-      <c r="D65" s="0">
+      <c r="D65">
         <v>127</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65">
         <v>218</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65">
         <v>3090.2053796623482</v>
       </c>
-      <c r="G65" s="0">
+      <c r="G65">
         <v>944.06516366430958</v>
       </c>
-      <c r="H65" s="0">
+      <c r="H65">
         <v>1096.6239414053559</v>
       </c>
-      <c r="I65" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J65" s="0">
+      <c r="I65">
+        <v>4095</v>
+      </c>
+      <c r="J65">
         <v>3272.8757152666517</v>
       </c>
-      <c r="K65" s="0">
+      <c r="K65">
         <v>1616.9423208972305</v>
       </c>
-      <c r="L65" s="0">
+      <c r="L65">
         <v>2343.9008926527808</v>
       </c>
-      <c r="M65" s="0">
+      <c r="M65">
         <v>3272.8757152666517</v>
       </c>
-      <c r="N65" s="0">
-        <v>4095</v>
-      </c>
-      <c r="O65" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P65" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q65" s="0">
+      <c r="N65">
+        <v>4095</v>
+      </c>
+      <c r="O65">
+        <v>4095</v>
+      </c>
+      <c r="P65">
+        <v>4095</v>
+      </c>
+      <c r="Q65">
         <v>-0.49580058416447192</v>
       </c>
-      <c r="R65" s="0">
+      <c r="R65">
         <v>1.9193617747054215</v>
       </c>
-      <c r="S65" s="0">
+      <c r="S65">
         <v>3.3407679316742374</v>
       </c>
-      <c r="T65" s="0">
+      <c r="T65">
         <v>0</v>
       </c>
-      <c r="U65" s="0">
+      <c r="U65">
         <v>0.56706954626510797</v>
       </c>
-      <c r="V65" s="0">
+      <c r="V65">
         <v>-0.17144894672834909</v>
       </c>
-      <c r="W65" s="0">
+      <c r="W65">
         <v>60.814188639322239</v>
       </c>
-      <c r="X65" s="0">
+      <c r="X65">
         <v>93.575080142207995</v>
       </c>
-      <c r="Y65" s="0">
+      <c r="Y65">
         <v>92.587844971802269</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>387</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66">
         <v>572</v>
       </c>
-      <c r="D66" s="0">
+      <c r="D66">
         <v>69</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66">
         <v>174</v>
       </c>
-      <c r="F66" s="0">
+      <c r="F66">
         <v>3288.8350257519933</v>
       </c>
-      <c r="G66" s="0">
+      <c r="G66">
         <v>615.53633170302214</v>
       </c>
-      <c r="H66" s="0">
+      <c r="H66">
         <v>2083.8979171435108</v>
       </c>
-      <c r="I66" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J66" s="0">
+      <c r="I66">
+        <v>4095</v>
+      </c>
+      <c r="J66">
         <v>3252.0679789425494</v>
       </c>
-      <c r="K66" s="0">
+      <c r="K66">
         <v>2422.1329823758297</v>
       </c>
-      <c r="L66" s="0">
+      <c r="L66">
         <v>2801.9835202563518</v>
       </c>
-      <c r="M66" s="0">
+      <c r="M66">
         <v>3252.0679789425494</v>
       </c>
-      <c r="N66" s="0">
+      <c r="N66">
         <v>3933.7244220645457</v>
       </c>
-      <c r="O66" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P66" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q66" s="0">
+      <c r="O66">
+        <v>4095</v>
+      </c>
+      <c r="P66">
+        <v>4095</v>
+      </c>
+      <c r="Q66">
         <v>-0.1131326306480933</v>
       </c>
-      <c r="R66" s="0">
+      <c r="R66">
         <v>1.7859558916123239</v>
       </c>
-      <c r="S66" s="0">
+      <c r="S66">
         <v>2.9996806379374896</v>
       </c>
-      <c r="T66" s="0">
+      <c r="T66">
         <v>0</v>
       </c>
-      <c r="U66" s="0">
+      <c r="U66">
         <v>0.63829946204423194</v>
       </c>
-      <c r="V66" s="0">
+      <c r="V66">
         <v>-0.10722073866568671</v>
       </c>
-      <c r="W66" s="0">
+      <c r="W66">
         <v>81.225434334600934</v>
       </c>
-      <c r="X66" s="0">
+      <c r="X66">
         <v>136.88628311358772</v>
       </c>
-      <c r="Y66" s="0">
+      <c r="Y66">
         <v>127.27541529033199</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>415</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67">
         <v>424</v>
       </c>
-      <c r="D67" s="0">
+      <c r="D67">
         <v>21</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67">
         <v>27</v>
       </c>
-      <c r="F67" s="0">
+      <c r="F67">
         <v>2627.7770352369384</v>
       </c>
-      <c r="G67" s="0">
+      <c r="G67">
         <v>766.55556257669139</v>
       </c>
-      <c r="H67" s="0">
+      <c r="H67">
         <v>1384.902794653706</v>
       </c>
-      <c r="I67" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J67" s="0">
+      <c r="I67">
+        <v>4095</v>
+      </c>
+      <c r="J67">
         <v>2603.1196840826246</v>
       </c>
-      <c r="K67" s="0">
+      <c r="K67">
         <v>1578.9550425273389</v>
       </c>
-      <c r="L67" s="0">
+      <c r="L67">
         <v>1987.7916160388822</v>
       </c>
-      <c r="M67" s="0">
+      <c r="M67">
         <v>2603.1196840826246</v>
       </c>
-      <c r="N67" s="0">
+      <c r="N67">
         <v>3197.7156743620903</v>
       </c>
-      <c r="O67" s="0">
+      <c r="O67">
         <v>3741.7253948967195</v>
       </c>
-      <c r="P67" s="0">
+      <c r="P67">
         <v>3872.7521263669505</v>
       </c>
-      <c r="Q67" s="0">
+      <c r="Q67">
         <v>0.14269839070558443</v>
       </c>
-      <c r="R67" s="0">
+      <c r="R67">
         <v>1.9341667097693522</v>
       </c>
-      <c r="S67" s="0">
+      <c r="S67">
         <v>3.3506529478202727</v>
       </c>
-      <c r="T67" s="0">
+      <c r="T67">
         <v>0</v>
       </c>
-      <c r="U67" s="0">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="V67" s="0">
+      <c r="U67">
+        <v>0.35</v>
+      </c>
+      <c r="V67">
         <v>-0.1690942824468884</v>
       </c>
-      <c r="W67" s="0">
+      <c r="W67">
         <v>356.5559745740776</v>
       </c>
-      <c r="X67" s="0">
+      <c r="X67">
         <v>730.40709863712095</v>
       </c>
-      <c r="Y67" s="0">
+      <c r="Y67">
         <v>313.06225281361958</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>382</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68">
         <v>540</v>
       </c>
-      <c r="D68" s="0">
+      <c r="D68">
         <v>67</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68">
         <v>172</v>
       </c>
-      <c r="F68" s="0">
+      <c r="F68">
         <v>2839.5217126900334</v>
       </c>
-      <c r="G68" s="0">
+      <c r="G68">
         <v>991.88542749226008</v>
       </c>
-      <c r="H68" s="0">
+      <c r="H68">
         <v>1058.757610437171</v>
       </c>
-      <c r="I68" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J68" s="0">
+      <c r="I68">
+        <v>4095</v>
+      </c>
+      <c r="J68">
         <v>2878.9034103913937</v>
       </c>
-      <c r="K68" s="0">
+      <c r="K68">
         <v>1435.4838635843441</v>
       </c>
-      <c r="L68" s="0">
+      <c r="L68">
         <v>1957.614328221561</v>
       </c>
-      <c r="M68" s="0">
+      <c r="M68">
         <v>2878.9034103913937</v>
       </c>
-      <c r="N68" s="0">
+      <c r="N68">
         <v>3871.9416914625772</v>
       </c>
-      <c r="O68" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P68" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q68" s="0">
+      <c r="O68">
+        <v>4095</v>
+      </c>
+      <c r="P68">
+        <v>4095</v>
+      </c>
+      <c r="Q68">
         <v>-0.14901860493004734</v>
       </c>
-      <c r="R68" s="0">
+      <c r="R68">
         <v>1.6700031834974274</v>
       </c>
-      <c r="S68" s="0">
+      <c r="S68">
         <v>3.5193930688573403</v>
       </c>
-      <c r="T68" s="0">
+      <c r="T68">
         <v>0</v>
       </c>
-      <c r="U68" s="0">
+      <c r="U68">
         <v>0.46551586350195795</v>
       </c>
-      <c r="V68" s="0">
+      <c r="V68">
         <v>-0.20009972914310858</v>
       </c>
-      <c r="W68" s="0">
+      <c r="W68">
         <v>52.812480306081028</v>
       </c>
-      <c r="X68" s="0">
+      <c r="X68">
         <v>84.602249154456203</v>
       </c>
-      <c r="Y68" s="0">
+      <c r="Y68">
         <v>100.78683614357388</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69">
         <v>411</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69">
         <v>623</v>
       </c>
-      <c r="D69" s="0">
+      <c r="D69">
         <v>14</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69">
         <v>149</v>
       </c>
-      <c r="F69" s="0">
+      <c r="F69">
         <v>2834.8995243512795</v>
       </c>
-      <c r="G69" s="0">
+      <c r="G69">
         <v>860.39670949860567</v>
       </c>
-      <c r="H69" s="0">
+      <c r="H69">
         <v>1069.8175783932249</v>
       </c>
-      <c r="I69" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J69" s="0">
+      <c r="I69">
+        <v>4095</v>
+      </c>
+      <c r="J69">
         <v>2859.5328450446323</v>
       </c>
-      <c r="K69" s="0">
+      <c r="K69">
         <v>1551.9571984435797</v>
       </c>
-      <c r="L69" s="0">
+      <c r="L69">
         <v>2193.0604257267109</v>
       </c>
-      <c r="M69" s="0">
+      <c r="M69">
         <v>2859.5328450446323</v>
       </c>
-      <c r="N69" s="0">
+      <c r="N69">
         <v>3471.267795834287</v>
       </c>
-      <c r="O69" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P69" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q69" s="0">
+      <c r="O69">
+        <v>4095</v>
+      </c>
+      <c r="P69">
+        <v>4095</v>
+      </c>
+      <c r="Q69">
         <v>-0.20019567863483237</v>
       </c>
-      <c r="R69" s="0">
+      <c r="R69">
         <v>2.1058101027478009</v>
       </c>
-      <c r="S69" s="0">
+      <c r="S69">
         <v>3.5431602125460588</v>
       </c>
-      <c r="T69" s="0">
+      <c r="T69">
         <v>0</v>
       </c>
-      <c r="U69" s="0">
+      <c r="U69">
         <v>0.44629019759783028</v>
       </c>
-      <c r="V69" s="0">
+      <c r="V69">
         <v>-0.17392561786915661</v>
       </c>
-      <c r="W69" s="0">
+      <c r="W69">
         <v>55.480516873776871</v>
       </c>
-      <c r="X69" s="0">
+      <c r="X69">
         <v>90.29286905780846</v>
       </c>
-      <c r="Y69" s="0">
+      <c r="Y69">
         <v>92.04508857252857</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70">
         <v>388</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70">
         <v>589</v>
       </c>
-      <c r="D70" s="0">
+      <c r="D70">
         <v>110</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70">
         <v>226</v>
       </c>
-      <c r="F70" s="0">
+      <c r="F70">
         <v>2744.6776051668016</v>
       </c>
-      <c r="G70" s="0">
+      <c r="G70">
         <v>960.33081380545934</v>
       </c>
-      <c r="H70" s="0">
+      <c r="H70">
         <v>969.27809567406723</v>
       </c>
-      <c r="I70" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J70" s="0">
+      <c r="I70">
+        <v>4095</v>
+      </c>
+      <c r="J70">
         <v>2751.8075074387734</v>
       </c>
-      <c r="K70" s="0">
+      <c r="K70">
         <v>1401.3041886015108</v>
       </c>
-      <c r="L70" s="0">
+      <c r="L70">
         <v>1922.2474250400548</v>
       </c>
-      <c r="M70" s="0">
+      <c r="M70">
         <v>2751.8075074387734</v>
       </c>
-      <c r="N70" s="0">
+      <c r="N70">
         <v>3597.0514991989012</v>
       </c>
-      <c r="O70" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P70" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q70" s="0">
-        <v>-0.077610901183346015</v>
-      </c>
-      <c r="R70" s="0">
+      <c r="O70">
+        <v>4095</v>
+      </c>
+      <c r="P70">
+        <v>4095</v>
+      </c>
+      <c r="Q70">
+        <v>-7.7610901183346015E-2</v>
+      </c>
+      <c r="R70">
         <v>1.7741400798018965</v>
       </c>
-      <c r="S70" s="0">
+      <c r="S70">
         <v>3.6140799770026986</v>
       </c>
-      <c r="T70" s="0">
-        <v>0.0050650458519940289</v>
-      </c>
-      <c r="U70" s="0">
+      <c r="T70">
+        <v>5.0650458519940289E-3</v>
+      </c>
+      <c r="U70">
         <v>0.42482405630198339</v>
       </c>
-      <c r="V70" s="0">
+      <c r="V70">
         <v>-0.20147218852473014</v>
       </c>
-      <c r="W70" s="0">
+      <c r="W70">
         <v>62.395319188890298</v>
       </c>
-      <c r="X70" s="0">
+      <c r="X70">
         <v>92.419461687741261</v>
       </c>
-      <c r="Y70" s="0">
+      <c r="Y70">
         <v>105.92702138314905</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71">
         <v>434</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71">
         <v>585</v>
       </c>
-      <c r="D71" s="0">
+      <c r="D71">
         <v>48</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71">
         <v>158</v>
       </c>
-      <c r="F71" s="0">
+      <c r="F71">
         <v>2966.6505205966496</v>
       </c>
-      <c r="G71" s="0">
+      <c r="G71">
         <v>995.84591378535879</v>
       </c>
-      <c r="H71" s="0">
+      <c r="H71">
         <v>966.71618219272148</v>
       </c>
-      <c r="I71" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J71" s="0">
+      <c r="I71">
+        <v>4095</v>
+      </c>
+      <c r="J71">
         <v>3124.6596475165939</v>
       </c>
-      <c r="K71" s="0">
+      <c r="K71">
         <v>1388.1696955825132</v>
       </c>
-      <c r="L71" s="0">
+      <c r="L71">
         <v>2192.935454337377</v>
       </c>
-      <c r="M71" s="0">
+      <c r="M71">
         <v>3124.6596475165939</v>
       </c>
-      <c r="N71" s="0">
+      <c r="N71">
         <v>4004.4582284275575</v>
       </c>
-      <c r="O71" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P71" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q71" s="0">
+      <c r="O71">
+        <v>4095</v>
+      </c>
+      <c r="P71">
+        <v>4095</v>
+      </c>
+      <c r="Q71">
         <v>-0.4342231120887548</v>
       </c>
-      <c r="R71" s="0">
+      <c r="R71">
         <v>1.908250451044899</v>
       </c>
-      <c r="S71" s="0">
+      <c r="S71">
         <v>3.4686860974065996</v>
       </c>
-      <c r="T71" s="0">
-        <v>0.0059404210710229752</v>
-      </c>
-      <c r="U71" s="0">
+      <c r="T71">
+        <v>5.9404210710229752E-3</v>
+      </c>
+      <c r="U71">
         <v>0.53254127719053024</v>
       </c>
-      <c r="V71" s="0">
+      <c r="V71">
         <v>-0.18996040527257074</v>
       </c>
-      <c r="W71" s="0">
+      <c r="W71">
         <v>56.753133599373768</v>
       </c>
-      <c r="X71" s="0">
+      <c r="X71">
         <v>100.89023406117283</v>
       </c>
-      <c r="Y71" s="0">
+      <c r="Y71">
         <v>104.23664866898136</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72">
         <v>425</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72">
         <v>600</v>
       </c>
-      <c r="D72" s="0">
+      <c r="D72">
         <v>135</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72">
         <v>251</v>
       </c>
-      <c r="F72" s="0">
+      <c r="F72">
         <v>2905.9361581162166</v>
       </c>
-      <c r="G72" s="0">
+      <c r="G72">
         <v>956.89134273934735</v>
       </c>
-      <c r="H72" s="0">
+      <c r="H72">
         <v>936.91050583657579</v>
       </c>
-      <c r="I72" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J72" s="0">
+      <c r="I72">
+        <v>4095</v>
+      </c>
+      <c r="J72">
         <v>3027.1194781414515</v>
       </c>
-      <c r="K72" s="0">
+      <c r="K72">
         <v>1455.0418860151065</v>
       </c>
-      <c r="L72" s="0">
+      <c r="L72">
         <v>2156.8812085145341</v>
       </c>
-      <c r="M72" s="0">
+      <c r="M72">
         <v>3027.1194781414515</v>
       </c>
-      <c r="N72" s="0">
+      <c r="N72">
         <v>3799.0677500572215</v>
       </c>
-      <c r="O72" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P72" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q72" s="0">
+      <c r="O72">
+        <v>4095</v>
+      </c>
+      <c r="P72">
+        <v>4095</v>
+      </c>
+      <c r="Q72">
         <v>-0.36225529617809155</v>
       </c>
-      <c r="R72" s="0">
+      <c r="R72">
         <v>1.9484978865818614</v>
       </c>
-      <c r="S72" s="0">
+      <c r="S72">
         <v>3.5610393151396287</v>
       </c>
-      <c r="T72" s="0">
-        <v>0.012253321294982588</v>
-      </c>
-      <c r="U72" s="0">
+      <c r="T72">
+        <v>1.2253321294982588E-2</v>
+      </c>
+      <c r="U72">
         <v>0.50857732490648777</v>
       </c>
-      <c r="V72" s="0">
+      <c r="V72">
         <v>-0.18788910474265008</v>
       </c>
-      <c r="W72" s="0">
+      <c r="W72">
         <v>57.890022041855779</v>
       </c>
-      <c r="X72" s="0">
+      <c r="X72">
         <v>90.06810974688814</v>
       </c>
-      <c r="Y72" s="0">
+      <c r="Y72">
         <v>98.109037039865783</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73">
         <v>389</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73">
         <v>532</v>
       </c>
-      <c r="D73" s="0">
+      <c r="D73">
         <v>11</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73">
         <v>121</v>
       </c>
-      <c r="F73" s="0">
+      <c r="F73">
         <v>3031.6556563724293</v>
       </c>
-      <c r="G73" s="0">
+      <c r="G73">
         <v>862.20901978131565</v>
       </c>
-      <c r="H73" s="0">
+      <c r="H73">
         <v>1282.768825818265</v>
       </c>
-      <c r="I73" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J73" s="0">
+      <c r="I73">
+        <v>4095</v>
+      </c>
+      <c r="J73">
         <v>3100.4776836804758</v>
       </c>
-      <c r="K73" s="0">
+      <c r="K73">
         <v>1764.5210345616849</v>
       </c>
-      <c r="L73" s="0">
+      <c r="L73">
         <v>2344.5882352941176</v>
       </c>
-      <c r="M73" s="0">
+      <c r="M73">
         <v>3100.4776836804758</v>
       </c>
-      <c r="N73" s="0">
+      <c r="N73">
         <v>3899.6072327763786</v>
       </c>
-      <c r="O73" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P73" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q73" s="0">
+      <c r="O73">
+        <v>4095</v>
+      </c>
+      <c r="P73">
+        <v>4095</v>
+      </c>
+      <c r="Q73">
         <v>-0.28750387464596799</v>
       </c>
-      <c r="R73" s="0">
+      <c r="R73">
         <v>1.8544094068953945</v>
       </c>
-      <c r="S73" s="0">
+      <c r="S73">
         <v>3.3990353694044866</v>
       </c>
-      <c r="T73" s="0">
+      <c r="T73">
         <v>0</v>
       </c>
-      <c r="U73" s="0">
+      <c r="U73">
         <v>0.53218850466556888</v>
       </c>
-      <c r="V73" s="0">
+      <c r="V73">
         <v>-0.16245905249956993</v>
       </c>
-      <c r="W73" s="0">
+      <c r="W73">
         <v>81.116149098610649</v>
       </c>
-      <c r="X73" s="0">
+      <c r="X73">
         <v>119.16443643755569</v>
       </c>
-      <c r="Y73" s="0">
+      <c r="Y73">
         <v>125.82022827328765</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74">
         <v>470</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74">
         <v>589</v>
       </c>
-      <c r="D74" s="0">
+      <c r="D74">
         <v>120</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74">
         <v>206</v>
       </c>
-      <c r="F74" s="0">
+      <c r="F74">
         <v>3251.4131653352883</v>
       </c>
-      <c r="G74" s="0">
+      <c r="G74">
         <v>857.13378589726017</v>
       </c>
-      <c r="H74" s="0">
+      <c r="H74">
         <v>1258.2119478141451</v>
       </c>
-      <c r="I74" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J74" s="0">
+      <c r="I74">
+        <v>4095</v>
+      </c>
+      <c r="J74">
         <v>3472.9549095902953</v>
       </c>
-      <c r="K74" s="0">
+      <c r="K74">
         <v>1909.1254291599912</v>
       </c>
-      <c r="L74" s="0">
+      <c r="L74">
         <v>2583.9084458686198</v>
       </c>
-      <c r="M74" s="0">
+      <c r="M74">
         <v>3472.9549095902953</v>
       </c>
-      <c r="N74" s="0">
-        <v>4095</v>
-      </c>
-      <c r="O74" s="0">
-        <v>4095</v>
-      </c>
-      <c r="P74" s="0">
-        <v>4095</v>
-      </c>
-      <c r="Q74" s="0">
+      <c r="N74">
+        <v>4095</v>
+      </c>
+      <c r="O74">
+        <v>4095</v>
+      </c>
+      <c r="P74">
+        <v>4095</v>
+      </c>
+      <c r="Q74">
         <v>-0.65449683964742911</v>
       </c>
-      <c r="R74" s="0">
+      <c r="R74">
         <v>2.1429935432704994</v>
       </c>
-      <c r="S74" s="0">
+      <c r="S74">
         <v>3.1456253589179335</v>
       </c>
-      <c r="T74" s="0">
+      <c r="T74">
         <v>0</v>
       </c>
-      <c r="U74" s="0">
+      <c r="U74">
         <v>0.64610274053861672</v>
       </c>
-      <c r="V74" s="0">
+      <c r="V74">
         <v>-0.14565183242957569</v>
       </c>
-      <c r="W74" s="0">
+      <c r="W74">
         <v>78.716157282774319</v>
       </c>
-      <c r="X74" s="0">
+      <c r="X74">
         <v>116.90845932248759</v>
       </c>
-      <c r="Y74" s="0">
+      <c r="Y74">
         <v>131.06947302083964</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75">
         <v>571</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75">
         <v>576</v>
       </c>
-      <c r="D75" s="0">
+      <c r="D75">
         <v>190</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75">
         <v>199</v>
       </c>
-      <c r="F75" s="0">
+      <c r="F75">
         <v>3479.3789200981728</v>
       </c>
-      <c r="G75" s="0">
+      <c r="G75">
         <v>277.27380733356392</v>
       </c>
-      <c r="H75" s="0">
+      <c r="H75">
         <v>2878.523316062176</v>
       </c>
-      <c r="I75" s="0">
-        <v>4095</v>
-      </c>
-      <c r="J75" s="0">
+      <c r="I75">
+        <v>4095</v>
+      </c>
+      <c r="J75">
         <v>3476.1528497409327</v>
       </c>
-      <c r="K75" s="0">
+      <c r="K75">
         <v>3139.5</v>
       </c>
-      <c r="L75" s="0">
+      <c r="L75">
         <v>3272.8173575129535</v>
       </c>
-      <c r="M75" s="0">
+      <c r="M75">
         <v>3476.1528497409327</v>
       </c>
-      <c r="N75" s="0">
+      <c r="N75">
         <v>3641.4734455958546</v>
       </c>
-      <c r="O75" s="0">
+      <c r="O75">
         <v>3877.8730569948189</v>
       </c>
-      <c r="P75" s="0">
+      <c r="P75">
         <v>4002.88018134715</v>
       </c>
-      <c r="Q75" s="0">
+      <c r="Q75">
         <v>0.10355078819160725</v>
       </c>
-      <c r="R75" s="0">
+      <c r="R75">
         <v>2.9277678950878467</v>
       </c>
-      <c r="S75" s="0">
+      <c r="S75">
         <v>2.1154074049546567</v>
       </c>
-      <c r="T75" s="0">
+      <c r="T75">
         <v>0</v>
       </c>
-      <c r="U75" s="0">
+      <c r="U75">
         <v>0.94736842105263153</v>
       </c>
-      <c r="V75" s="0">
-        <v>-0.045020008609688356</v>
-      </c>
-      <c r="W75" s="0">
+      <c r="V75">
+        <v>-4.5020008609688356E-2</v>
+      </c>
+      <c r="W75">
         <v>159.42182232032692</v>
       </c>
-      <c r="X75" s="0">
+      <c r="X75">
         <v>247.50163004489326</v>
       </c>
-      <c r="Y75" s="0">
+      <c r="Y75">
         <v>162.75272225051785</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f>AVERAGE(F2:F75)</f>
+        <v>2794.9459149041181</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>